--- a/src/main/resources/templates/excel/skillreport.xlsx
+++ b/src/main/resources/templates/excel/skillreport.xlsx
@@ -11,7 +11,7 @@
     <sheet name="経歴書" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">経歴書!$A$1:$T$113</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">経歴書!$A$1:$T$115</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">経歴書!$1:$14</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -211,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -313,13 +313,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
@@ -350,7 +343,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -495,7 +488,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -515,10 +508,6 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -531,23 +520,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -579,7 +556,7 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W9" activeCellId="0" sqref="W9"/>
+      <selection pane="topLeft" activeCell="V106" activeCellId="0" sqref="V106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.8828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -647,7 +624,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="4" t="n">
         <f aca="true">TODAY()</f>
-        <v>44493</v>
+        <v>44514</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -1021,10 +998,10 @@
     </row>
     <row r="16" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="34"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="37"/>
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
@@ -1056,67 +1033,67 @@
         <f aca="false">IF(OR(B17="",B18="",B18="現在"),"",IF(DATEDIF(B17,DATE(YEAR(B18),MONTH(B18)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B17,DATE(YEAR(B18),MONTH(B18)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B17,DATE(YEAR(B18),MONTH(B18)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B17,DATE(YEAR(B18),MONTH(B18)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B17,DATE(YEAR(B18),MONTH(B18)+1,0)+1,"y")&amp;"年"),DATEDIF(B17,DATE(YEAR(B18),MONTH(B18)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
       <c r="M17" s="39"/>
       <c r="N17" s="39"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
       <c r="R17" s="39"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
       <c r="U17" s="32"/>
       <c r="V17" s="32"/>
       <c r="W17" s="32"/>
     </row>
     <row r="18" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="34"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
       <c r="M18" s="39"/>
       <c r="N18" s="39"/>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
       <c r="R18" s="39"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
       <c r="U18" s="32"/>
       <c r="V18" s="32"/>
       <c r="W18" s="32"/>
     </row>
     <row r="19" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="44" t="n">
+      <c r="A19" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="37" t="str">
         <f aca="false">IF(OR(B19="",B20="",B20="現在"),"",IF(DATEDIF(B19,DATE(YEAR(B20),MONTH(B20)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B19,DATE(YEAR(B20),MONTH(B20)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B19,DATE(YEAR(B20),MONTH(B20)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B19,DATE(YEAR(B20),MONTH(B20)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B19,DATE(YEAR(B20),MONTH(B20)+1,0)+1,"y")&amp;"年"),DATEDIF(B19,DATE(YEAR(B20),MONTH(B20)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
       <c r="M19" s="39"/>
       <c r="N19" s="39"/>
       <c r="O19" s="39"/>
@@ -1130,18 +1107,18 @@
       <c r="W19" s="32"/>
     </row>
     <row r="20" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="44"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
       <c r="M20" s="39"/>
       <c r="N20" s="39"/>
       <c r="O20" s="39"/>
@@ -1158,53 +1135,53 @@
       <c r="A21" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="37" t="str">
         <f aca="false">IF(OR(B21="",B22="",B22="現在"),"",IF(DATEDIF(B21,DATE(YEAR(B22),MONTH(B22)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B21,DATE(YEAR(B22),MONTH(B22)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B21,DATE(YEAR(B22),MONTH(B22)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B21,DATE(YEAR(B22),MONTH(B22)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B21,DATE(YEAR(B22),MONTH(B22)+1,0)+1,"y")&amp;"年"),DATEDIF(B21,DATE(YEAR(B22),MONTH(B22)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
       <c r="M21" s="39"/>
       <c r="N21" s="39"/>
       <c r="O21" s="39"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="39"/>
       <c r="R21" s="39"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
       <c r="U21" s="32"/>
       <c r="V21" s="32"/>
       <c r="W21" s="32"/>
     </row>
     <row r="22" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="34"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
       <c r="M22" s="39"/>
       <c r="N22" s="39"/>
       <c r="O22" s="39"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="39"/>
       <c r="R22" s="39"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
       <c r="U22" s="32"/>
       <c r="V22" s="32"/>
       <c r="W22" s="32"/>
@@ -1213,53 +1190,53 @@
       <c r="A23" s="34" t="n">
         <v>5</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="37" t="str">
         <f aca="false">IF(OR(B23="",B24="",B24="現在"),"",IF(DATEDIF(B23,DATE(YEAR(B24),MONTH(B24)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B23,DATE(YEAR(B24),MONTH(B24)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B23,DATE(YEAR(B24),MONTH(B24)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B23,DATE(YEAR(B24),MONTH(B24)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B23,DATE(YEAR(B24),MONTH(B24)+1,0)+1,"y")&amp;"年"),DATEDIF(B23,DATE(YEAR(B24),MONTH(B24)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
       <c r="M23" s="39"/>
       <c r="N23" s="39"/>
       <c r="O23" s="39"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="39"/>
       <c r="R23" s="39"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
       <c r="U23" s="32"/>
       <c r="V23" s="32"/>
       <c r="W23" s="32"/>
     </row>
     <row r="24" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="34"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="37"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
       <c r="M24" s="39"/>
       <c r="N24" s="39"/>
       <c r="O24" s="39"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="39"/>
       <c r="R24" s="39"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
       <c r="U24" s="32"/>
       <c r="V24" s="32"/>
       <c r="W24" s="32"/>
@@ -1268,53 +1245,53 @@
       <c r="A25" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
       <c r="F25" s="37" t="str">
         <f aca="false">IF(OR(B25="",B26="",B26="現在"),"",IF(DATEDIF(B25,DATE(YEAR(B26),MONTH(B26)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B25,DATE(YEAR(B26),MONTH(B26)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B25,DATE(YEAR(B26),MONTH(B26)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B25,DATE(YEAR(B26),MONTH(B26)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B25,DATE(YEAR(B26),MONTH(B26)+1,0)+1,"y")&amp;"年"),DATEDIF(B25,DATE(YEAR(B26),MONTH(B26)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
       <c r="M25" s="39"/>
       <c r="N25" s="39"/>
       <c r="O25" s="39"/>
       <c r="P25" s="39"/>
       <c r="Q25" s="39"/>
       <c r="R25" s="39"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
       <c r="U25" s="32"/>
       <c r="V25" s="32"/>
       <c r="W25" s="32"/>
     </row>
     <row r="26" s="30" customFormat="true" ht="28.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="34"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
       <c r="F26" s="37"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
       <c r="M26" s="39"/>
       <c r="N26" s="39"/>
       <c r="O26" s="39"/>
       <c r="P26" s="39"/>
       <c r="Q26" s="39"/>
       <c r="R26" s="39"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
       <c r="U26" s="32"/>
       <c r="V26" s="32"/>
       <c r="W26" s="32"/>
@@ -1323,2405 +1300,2458 @@
       <c r="A27" s="34" t="n">
         <v>7</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
       <c r="F27" s="37" t="str">
         <f aca="false">IF(OR(B27="",B28="",B28="現在"),"",IF(DATEDIF(B27,DATE(YEAR(B28),MONTH(B28)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B27,DATE(YEAR(B28),MONTH(B28)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B27,DATE(YEAR(B28),MONTH(B28)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B27,DATE(YEAR(B28),MONTH(B28)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B27,DATE(YEAR(B28),MONTH(B28)+1,0)+1,"y")&amp;"年"),DATEDIF(B27,DATE(YEAR(B28),MONTH(B28)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
       <c r="M27" s="39"/>
       <c r="N27" s="39"/>
       <c r="O27" s="39"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="39"/>
       <c r="R27" s="39"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
       <c r="U27" s="32"/>
       <c r="V27" s="32"/>
       <c r="W27" s="32"/>
     </row>
     <row r="28" s="30" customFormat="true" ht="28.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="34"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="37"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
       <c r="M28" s="39"/>
       <c r="N28" s="39"/>
       <c r="O28" s="39"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="39"/>
       <c r="R28" s="39"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
       <c r="U28" s="32"/>
       <c r="V28" s="32"/>
       <c r="W28" s="32"/>
     </row>
     <row r="29" s="30" customFormat="true" ht="28.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="34" t="n">
-        <v>9</v>
-      </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
+        <v>8</v>
+      </c>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
       <c r="F29" s="37" t="str">
         <f aca="false">IF(OR(B29="",B30="",B30="現在"),"",IF(DATEDIF(B29,DATE(YEAR(B30),MONTH(B30)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B29,DATE(YEAR(B30),MONTH(B30)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B29,DATE(YEAR(B30),MONTH(B30)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B29,DATE(YEAR(B30),MONTH(B30)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B29,DATE(YEAR(B30),MONTH(B30)+1,0)+1,"y")&amp;"年"),DATEDIF(B29,DATE(YEAR(B30),MONTH(B30)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
       <c r="M29" s="39"/>
       <c r="N29" s="39"/>
       <c r="O29" s="39"/>
       <c r="P29" s="39"/>
       <c r="Q29" s="39"/>
       <c r="R29" s="39"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="49"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
       <c r="U29" s="32"/>
       <c r="V29" s="32"/>
       <c r="W29" s="32"/>
     </row>
     <row r="30" s="30" customFormat="true" ht="28.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="34"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
       <c r="M30" s="39"/>
       <c r="N30" s="39"/>
       <c r="O30" s="39"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="39"/>
       <c r="R30" s="39"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="49"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
       <c r="U30" s="32"/>
       <c r="V30" s="32"/>
       <c r="W30" s="32"/>
     </row>
     <row r="31" s="30" customFormat="true" ht="28.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="34" t="n">
-        <v>10</v>
-      </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
+        <v>9</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
       <c r="F31" s="37" t="str">
         <f aca="false">IF(OR(B31="",B32="",B32="現在"),"",IF(DATEDIF(B31,DATE(YEAR(B32),MONTH(B32)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B31,DATE(YEAR(B32),MONTH(B32)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B31,DATE(YEAR(B32),MONTH(B32)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B31,DATE(YEAR(B32),MONTH(B32)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B31,DATE(YEAR(B32),MONTH(B32)+1,0)+1,"y")&amp;"年"),DATEDIF(B31,DATE(YEAR(B32),MONTH(B32)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
       <c r="M31" s="39"/>
       <c r="N31" s="39"/>
       <c r="O31" s="39"/>
       <c r="P31" s="39"/>
       <c r="Q31" s="39"/>
       <c r="R31" s="39"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
       <c r="U31" s="32"/>
       <c r="V31" s="32"/>
       <c r="W31" s="32"/>
     </row>
     <row r="32" s="30" customFormat="true" ht="28.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="34"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
       <c r="M32" s="39"/>
       <c r="N32" s="39"/>
       <c r="O32" s="39"/>
       <c r="P32" s="39"/>
       <c r="Q32" s="39"/>
       <c r="R32" s="39"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="49"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
       <c r="U32" s="32"/>
       <c r="V32" s="32"/>
       <c r="W32" s="32"/>
     </row>
     <row r="33" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="34" t="n">
-        <v>11</v>
-      </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
+        <v>10</v>
+      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
       <c r="F33" s="37" t="str">
         <f aca="false">IF(OR(B33="",B34="",B34="現在"),"",IF(DATEDIF(B33,DATE(YEAR(B34),MONTH(B34)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B33,DATE(YEAR(B34),MONTH(B34)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B33,DATE(YEAR(B34),MONTH(B34)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B33,DATE(YEAR(B34),MONTH(B34)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B33,DATE(YEAR(B34),MONTH(B34)+1,0)+1,"y")&amp;"年"),DATEDIF(B33,DATE(YEAR(B34),MONTH(B34)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
       <c r="M33" s="39"/>
       <c r="N33" s="39"/>
       <c r="O33" s="39"/>
       <c r="P33" s="39"/>
       <c r="Q33" s="39"/>
       <c r="R33" s="39"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
       <c r="U33" s="32"/>
       <c r="V33" s="32"/>
       <c r="W33" s="32"/>
     </row>
     <row r="34" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="34"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
       <c r="F34" s="37"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
       <c r="M34" s="39"/>
       <c r="N34" s="39"/>
       <c r="O34" s="39"/>
       <c r="P34" s="39"/>
       <c r="Q34" s="39"/>
       <c r="R34" s="39"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
       <c r="U34" s="32"/>
       <c r="V34" s="32"/>
       <c r="W34" s="32"/>
     </row>
     <row r="35" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="34" t="n">
-        <v>12</v>
-      </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
+        <v>11</v>
+      </c>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
       <c r="F35" s="37" t="str">
         <f aca="false">IF(OR(B35="",B36="",B36="現在"),"",IF(DATEDIF(B35,DATE(YEAR(B36),MONTH(B36)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B35,DATE(YEAR(B36),MONTH(B36)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B35,DATE(YEAR(B36),MONTH(B36)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B35,DATE(YEAR(B36),MONTH(B36)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B35,DATE(YEAR(B36),MONTH(B36)+1,0)+1,"y")&amp;"年"),DATEDIF(B35,DATE(YEAR(B36),MONTH(B36)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
       <c r="M35" s="39"/>
       <c r="N35" s="39"/>
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="39"/>
       <c r="R35" s="39"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
       <c r="U35" s="32"/>
       <c r="V35" s="32"/>
       <c r="W35" s="32"/>
     </row>
     <row r="36" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="34"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
       <c r="F36" s="37"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
       <c r="M36" s="39"/>
       <c r="N36" s="39"/>
       <c r="O36" s="39"/>
       <c r="P36" s="39"/>
       <c r="Q36" s="39"/>
       <c r="R36" s="39"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="49"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
       <c r="U36" s="32"/>
       <c r="V36" s="32"/>
       <c r="W36" s="32"/>
     </row>
     <row r="37" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="34" t="n">
-        <v>13</v>
-      </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
+        <v>12</v>
+      </c>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
       <c r="F37" s="37" t="str">
         <f aca="false">IF(OR(B37="",B38="",B38="現在"),"",IF(DATEDIF(B37,DATE(YEAR(B38),MONTH(B38)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B37,DATE(YEAR(B38),MONTH(B38)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B37,DATE(YEAR(B38),MONTH(B38)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B37,DATE(YEAR(B38),MONTH(B38)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B37,DATE(YEAR(B38),MONTH(B38)+1,0)+1,"y")&amp;"年"),DATEDIF(B37,DATE(YEAR(B38),MONTH(B38)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
       <c r="M37" s="39"/>
       <c r="N37" s="39"/>
       <c r="O37" s="39"/>
       <c r="P37" s="39"/>
       <c r="Q37" s="39"/>
       <c r="R37" s="39"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
       <c r="U37" s="32"/>
       <c r="V37" s="32"/>
       <c r="W37" s="32"/>
     </row>
     <row r="38" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="34"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="37"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
       <c r="M38" s="39"/>
       <c r="N38" s="39"/>
       <c r="O38" s="39"/>
       <c r="P38" s="39"/>
       <c r="Q38" s="39"/>
       <c r="R38" s="39"/>
-      <c r="S38" s="49"/>
-      <c r="T38" s="49"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
       <c r="U38" s="32"/>
       <c r="V38" s="32"/>
       <c r="W38" s="32"/>
     </row>
     <row r="39" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="34" t="n">
-        <v>14</v>
-      </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
+        <v>13</v>
+      </c>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
       <c r="F39" s="37" t="str">
         <f aca="false">IF(OR(B39="",B40="",B40="現在"),"",IF(DATEDIF(B39,DATE(YEAR(B40),MONTH(B40)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B39,DATE(YEAR(B40),MONTH(B40)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B39,DATE(YEAR(B40),MONTH(B40)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B39,DATE(YEAR(B40),MONTH(B40)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B39,DATE(YEAR(B40),MONTH(B40)+1,0)+1,"y")&amp;"年"),DATEDIF(B39,DATE(YEAR(B40),MONTH(B40)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
       <c r="M39" s="39"/>
       <c r="N39" s="39"/>
       <c r="O39" s="39"/>
       <c r="P39" s="39"/>
       <c r="Q39" s="39"/>
       <c r="R39" s="39"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="49"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
       <c r="U39" s="32"/>
       <c r="V39" s="32"/>
       <c r="W39" s="32"/>
     </row>
     <row r="40" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="34"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
       <c r="F40" s="37"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
       <c r="M40" s="39"/>
       <c r="N40" s="39"/>
       <c r="O40" s="39"/>
       <c r="P40" s="39"/>
       <c r="Q40" s="39"/>
       <c r="R40" s="39"/>
-      <c r="S40" s="49"/>
-      <c r="T40" s="49"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
       <c r="U40" s="32"/>
       <c r="V40" s="32"/>
       <c r="W40" s="32"/>
     </row>
     <row r="41" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="34" t="n">
-        <v>15</v>
-      </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
+        <v>14</v>
+      </c>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
       <c r="F41" s="37" t="str">
         <f aca="false">IF(OR(B41="",B42="",B42="現在"),"",IF(DATEDIF(B41,DATE(YEAR(B42),MONTH(B42)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B41,DATE(YEAR(B42),MONTH(B42)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B41,DATE(YEAR(B42),MONTH(B42)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B41,DATE(YEAR(B42),MONTH(B42)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B41,DATE(YEAR(B42),MONTH(B42)+1,0)+1,"y")&amp;"年"),DATEDIF(B41,DATE(YEAR(B42),MONTH(B42)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
       <c r="M41" s="39"/>
       <c r="N41" s="39"/>
       <c r="O41" s="39"/>
       <c r="P41" s="39"/>
       <c r="Q41" s="39"/>
       <c r="R41" s="39"/>
-      <c r="S41" s="49"/>
-      <c r="T41" s="49"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
       <c r="U41" s="32"/>
       <c r="V41" s="32"/>
       <c r="W41" s="32"/>
     </row>
     <row r="42" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="34"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
       <c r="F42" s="37"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
       <c r="M42" s="39"/>
       <c r="N42" s="39"/>
       <c r="O42" s="39"/>
       <c r="P42" s="39"/>
       <c r="Q42" s="39"/>
       <c r="R42" s="39"/>
-      <c r="S42" s="49"/>
-      <c r="T42" s="49"/>
+      <c r="S42" s="45"/>
+      <c r="T42" s="45"/>
       <c r="U42" s="32"/>
       <c r="V42" s="32"/>
       <c r="W42" s="32"/>
     </row>
     <row r="43" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="34" t="n">
-        <v>16</v>
-      </c>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
+        <v>15</v>
+      </c>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
       <c r="F43" s="37" t="str">
         <f aca="false">IF(OR(B43="",B44="",B44="現在"),"",IF(DATEDIF(B43,DATE(YEAR(B44),MONTH(B44)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B43,DATE(YEAR(B44),MONTH(B44)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B43,DATE(YEAR(B44),MONTH(B44)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B43,DATE(YEAR(B44),MONTH(B44)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B43,DATE(YEAR(B44),MONTH(B44)+1,0)+1,"y")&amp;"年"),DATEDIF(B43,DATE(YEAR(B44),MONTH(B44)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
       <c r="M43" s="39"/>
       <c r="N43" s="39"/>
       <c r="O43" s="39"/>
       <c r="P43" s="39"/>
       <c r="Q43" s="39"/>
       <c r="R43" s="39"/>
-      <c r="S43" s="49"/>
-      <c r="T43" s="49"/>
+      <c r="S43" s="45"/>
+      <c r="T43" s="45"/>
       <c r="U43" s="32"/>
       <c r="V43" s="32"/>
       <c r="W43" s="32"/>
     </row>
     <row r="44" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="34"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
       <c r="F44" s="37"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
       <c r="M44" s="39"/>
       <c r="N44" s="39"/>
       <c r="O44" s="39"/>
       <c r="P44" s="39"/>
       <c r="Q44" s="39"/>
       <c r="R44" s="39"/>
-      <c r="S44" s="49"/>
-      <c r="T44" s="49"/>
+      <c r="S44" s="45"/>
+      <c r="T44" s="45"/>
       <c r="U44" s="32"/>
       <c r="V44" s="32"/>
       <c r="W44" s="32"/>
     </row>
     <row r="45" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="34" t="n">
-        <v>17</v>
-      </c>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
+        <v>16</v>
+      </c>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
       <c r="F45" s="37" t="str">
         <f aca="false">IF(OR(B45="",B46="",B46="現在"),"",IF(DATEDIF(B45,DATE(YEAR(B46),MONTH(B46)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B45,DATE(YEAR(B46),MONTH(B46)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B45,DATE(YEAR(B46),MONTH(B46)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B45,DATE(YEAR(B46),MONTH(B46)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B45,DATE(YEAR(B46),MONTH(B46)+1,0)+1,"y")&amp;"年"),DATEDIF(B45,DATE(YEAR(B46),MONTH(B46)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
       <c r="M45" s="39"/>
       <c r="N45" s="39"/>
       <c r="O45" s="39"/>
       <c r="P45" s="39"/>
       <c r="Q45" s="39"/>
       <c r="R45" s="39"/>
-      <c r="S45" s="49"/>
-      <c r="T45" s="49"/>
+      <c r="S45" s="45"/>
+      <c r="T45" s="45"/>
       <c r="U45" s="32"/>
       <c r="V45" s="32"/>
       <c r="W45" s="32"/>
     </row>
     <row r="46" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="34"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
       <c r="F46" s="37"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="48"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
       <c r="M46" s="39"/>
       <c r="N46" s="39"/>
       <c r="O46" s="39"/>
       <c r="P46" s="39"/>
       <c r="Q46" s="39"/>
       <c r="R46" s="39"/>
-      <c r="S46" s="49"/>
-      <c r="T46" s="49"/>
+      <c r="S46" s="45"/>
+      <c r="T46" s="45"/>
       <c r="U46" s="32"/>
       <c r="V46" s="32"/>
       <c r="W46" s="32"/>
     </row>
     <row r="47" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="34" t="n">
-        <v>18</v>
-      </c>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
+        <v>17</v>
+      </c>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
       <c r="F47" s="37" t="str">
         <f aca="false">IF(OR(B47="",B48="",B48="現在"),"",IF(DATEDIF(B47,DATE(YEAR(B48),MONTH(B48)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B47,DATE(YEAR(B48),MONTH(B48)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B47,DATE(YEAR(B48),MONTH(B48)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B47,DATE(YEAR(B48),MONTH(B48)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B47,DATE(YEAR(B48),MONTH(B48)+1,0)+1,"y")&amp;"年"),DATEDIF(B47,DATE(YEAR(B48),MONTH(B48)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
       <c r="M47" s="39"/>
       <c r="N47" s="39"/>
       <c r="O47" s="39"/>
       <c r="P47" s="39"/>
       <c r="Q47" s="39"/>
       <c r="R47" s="39"/>
-      <c r="S47" s="49"/>
-      <c r="T47" s="49"/>
+      <c r="S47" s="45"/>
+      <c r="T47" s="45"/>
       <c r="U47" s="32"/>
       <c r="V47" s="32"/>
       <c r="W47" s="32"/>
     </row>
     <row r="48" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="34"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
       <c r="F48" s="37"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
       <c r="M48" s="39"/>
       <c r="N48" s="39"/>
       <c r="O48" s="39"/>
       <c r="P48" s="39"/>
       <c r="Q48" s="39"/>
       <c r="R48" s="39"/>
-      <c r="S48" s="49"/>
-      <c r="T48" s="49"/>
+      <c r="S48" s="45"/>
+      <c r="T48" s="45"/>
       <c r="U48" s="32"/>
       <c r="V48" s="32"/>
       <c r="W48" s="32"/>
     </row>
     <row r="49" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="34" t="n">
-        <v>19</v>
-      </c>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
+        <v>18</v>
+      </c>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
       <c r="F49" s="37" t="str">
         <f aca="false">IF(OR(B49="",B50="",B50="現在"),"",IF(DATEDIF(B49,DATE(YEAR(B50),MONTH(B50)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B49,DATE(YEAR(B50),MONTH(B50)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B49,DATE(YEAR(B50),MONTH(B50)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B49,DATE(YEAR(B50),MONTH(B50)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B49,DATE(YEAR(B50),MONTH(B50)+1,0)+1,"y")&amp;"年"),DATEDIF(B49,DATE(YEAR(B50),MONTH(B50)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
       <c r="M49" s="39"/>
       <c r="N49" s="39"/>
       <c r="O49" s="39"/>
       <c r="P49" s="39"/>
       <c r="Q49" s="39"/>
       <c r="R49" s="39"/>
-      <c r="S49" s="49"/>
-      <c r="T49" s="49"/>
+      <c r="S49" s="45"/>
+      <c r="T49" s="45"/>
       <c r="U49" s="32"/>
       <c r="V49" s="32"/>
       <c r="W49" s="32"/>
     </row>
     <row r="50" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="34"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
       <c r="F50" s="37"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
       <c r="M50" s="39"/>
       <c r="N50" s="39"/>
       <c r="O50" s="39"/>
       <c r="P50" s="39"/>
       <c r="Q50" s="39"/>
       <c r="R50" s="39"/>
-      <c r="S50" s="49"/>
-      <c r="T50" s="49"/>
+      <c r="S50" s="45"/>
+      <c r="T50" s="45"/>
       <c r="U50" s="32"/>
       <c r="V50" s="32"/>
       <c r="W50" s="32"/>
     </row>
     <row r="51" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="34" t="n">
-        <v>20</v>
-      </c>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
+        <v>19</v>
+      </c>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
       <c r="F51" s="37" t="str">
         <f aca="false">IF(OR(B51="",B52="",B52="現在"),"",IF(DATEDIF(B51,DATE(YEAR(B52),MONTH(B52)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B51,DATE(YEAR(B52),MONTH(B52)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B51,DATE(YEAR(B52),MONTH(B52)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B51,DATE(YEAR(B52),MONTH(B52)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B51,DATE(YEAR(B52),MONTH(B52)+1,0)+1,"y")&amp;"年"),DATEDIF(B51,DATE(YEAR(B52),MONTH(B52)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="48"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
       <c r="M51" s="39"/>
       <c r="N51" s="39"/>
       <c r="O51" s="39"/>
       <c r="P51" s="39"/>
       <c r="Q51" s="39"/>
       <c r="R51" s="39"/>
-      <c r="S51" s="49"/>
-      <c r="T51" s="49"/>
+      <c r="S51" s="45"/>
+      <c r="T51" s="45"/>
       <c r="U51" s="32"/>
       <c r="V51" s="32"/>
       <c r="W51" s="32"/>
     </row>
     <row r="52" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="34"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
       <c r="F52" s="37"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
       <c r="M52" s="39"/>
       <c r="N52" s="39"/>
       <c r="O52" s="39"/>
       <c r="P52" s="39"/>
       <c r="Q52" s="39"/>
       <c r="R52" s="39"/>
-      <c r="S52" s="49"/>
-      <c r="T52" s="49"/>
+      <c r="S52" s="45"/>
+      <c r="T52" s="45"/>
       <c r="U52" s="32"/>
       <c r="V52" s="32"/>
       <c r="W52" s="32"/>
     </row>
     <row r="53" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="34" t="n">
-        <v>21</v>
-      </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
+        <v>20</v>
+      </c>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
       <c r="F53" s="37" t="str">
         <f aca="false">IF(OR(B53="",B54="",B54="現在"),"",IF(DATEDIF(B53,DATE(YEAR(B54),MONTH(B54)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B53,DATE(YEAR(B54),MONTH(B54)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B53,DATE(YEAR(B54),MONTH(B54)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B53,DATE(YEAR(B54),MONTH(B54)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B53,DATE(YEAR(B54),MONTH(B54)+1,0)+1,"y")&amp;"年"),DATEDIF(B53,DATE(YEAR(B54),MONTH(B54)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="48"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
       <c r="M53" s="39"/>
       <c r="N53" s="39"/>
       <c r="O53" s="39"/>
       <c r="P53" s="39"/>
       <c r="Q53" s="39"/>
       <c r="R53" s="39"/>
-      <c r="S53" s="49"/>
-      <c r="T53" s="49"/>
+      <c r="S53" s="45"/>
+      <c r="T53" s="45"/>
       <c r="U53" s="32"/>
       <c r="V53" s="32"/>
       <c r="W53" s="32"/>
     </row>
     <row r="54" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="34"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
       <c r="F54" s="37"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="48"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44"/>
       <c r="M54" s="39"/>
       <c r="N54" s="39"/>
       <c r="O54" s="39"/>
       <c r="P54" s="39"/>
       <c r="Q54" s="39"/>
       <c r="R54" s="39"/>
-      <c r="S54" s="49"/>
-      <c r="T54" s="49"/>
+      <c r="S54" s="45"/>
+      <c r="T54" s="45"/>
       <c r="U54" s="32"/>
       <c r="V54" s="32"/>
       <c r="W54" s="32"/>
     </row>
     <row r="55" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="34" t="n">
-        <v>22</v>
-      </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
       <c r="F55" s="37" t="str">
         <f aca="false">IF(OR(B55="",B56="",B56="現在"),"",IF(DATEDIF(B55,DATE(YEAR(B56),MONTH(B56)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B55,DATE(YEAR(B56),MONTH(B56)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B55,DATE(YEAR(B56),MONTH(B56)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B55,DATE(YEAR(B56),MONTH(B56)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B55,DATE(YEAR(B56),MONTH(B56)+1,0)+1,"y")&amp;"年"),DATEDIF(B55,DATE(YEAR(B56),MONTH(B56)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="48"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
       <c r="M55" s="39"/>
       <c r="N55" s="39"/>
       <c r="O55" s="39"/>
       <c r="P55" s="39"/>
       <c r="Q55" s="39"/>
       <c r="R55" s="39"/>
-      <c r="S55" s="49"/>
-      <c r="T55" s="49"/>
+      <c r="S55" s="45"/>
+      <c r="T55" s="45"/>
       <c r="U55" s="32"/>
       <c r="V55" s="32"/>
       <c r="W55" s="32"/>
     </row>
     <row r="56" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="34"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
       <c r="F56" s="37"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="48"/>
-      <c r="L56" s="48"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="44"/>
       <c r="M56" s="39"/>
       <c r="N56" s="39"/>
       <c r="O56" s="39"/>
       <c r="P56" s="39"/>
       <c r="Q56" s="39"/>
       <c r="R56" s="39"/>
-      <c r="S56" s="49"/>
-      <c r="T56" s="49"/>
+      <c r="S56" s="45"/>
+      <c r="T56" s="45"/>
       <c r="U56" s="32"/>
       <c r="V56" s="32"/>
       <c r="W56" s="32"/>
     </row>
     <row r="57" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="34" t="n">
-        <v>23</v>
-      </c>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
+        <v>22</v>
+      </c>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
       <c r="F57" s="37" t="str">
         <f aca="false">IF(OR(B57="",B58="",B58="現在"),"",IF(DATEDIF(B57,DATE(YEAR(B58),MONTH(B58)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B57,DATE(YEAR(B58),MONTH(B58)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B57,DATE(YEAR(B58),MONTH(B58)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B57,DATE(YEAR(B58),MONTH(B58)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B57,DATE(YEAR(B58),MONTH(B58)+1,0)+1,"y")&amp;"年"),DATEDIF(B57,DATE(YEAR(B58),MONTH(B58)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="48"/>
-      <c r="L57" s="48"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
       <c r="M57" s="39"/>
       <c r="N57" s="39"/>
       <c r="O57" s="39"/>
       <c r="P57" s="39"/>
       <c r="Q57" s="39"/>
       <c r="R57" s="39"/>
-      <c r="S57" s="49"/>
-      <c r="T57" s="49"/>
+      <c r="S57" s="45"/>
+      <c r="T57" s="45"/>
       <c r="U57" s="32"/>
       <c r="V57" s="32"/>
       <c r="W57" s="32"/>
     </row>
     <row r="58" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="34"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
       <c r="F58" s="37"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="48"/>
-      <c r="K58" s="48"/>
-      <c r="L58" s="48"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="44"/>
       <c r="M58" s="39"/>
       <c r="N58" s="39"/>
       <c r="O58" s="39"/>
       <c r="P58" s="39"/>
       <c r="Q58" s="39"/>
       <c r="R58" s="39"/>
-      <c r="S58" s="49"/>
-      <c r="T58" s="49"/>
+      <c r="S58" s="45"/>
+      <c r="T58" s="45"/>
       <c r="U58" s="32"/>
       <c r="V58" s="32"/>
       <c r="W58" s="32"/>
     </row>
     <row r="59" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="34" t="n">
-        <v>24</v>
-      </c>
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
+        <v>23</v>
+      </c>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
       <c r="F59" s="37" t="str">
         <f aca="false">IF(OR(B59="",B60="",B60="現在"),"",IF(DATEDIF(B59,DATE(YEAR(B60),MONTH(B60)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B59,DATE(YEAR(B60),MONTH(B60)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B59,DATE(YEAR(B60),MONTH(B60)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B59,DATE(YEAR(B60),MONTH(B60)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B59,DATE(YEAR(B60),MONTH(B60)+1,0)+1,"y")&amp;"年"),DATEDIF(B59,DATE(YEAR(B60),MONTH(B60)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="48"/>
-      <c r="L59" s="48"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="44"/>
       <c r="M59" s="39"/>
       <c r="N59" s="39"/>
       <c r="O59" s="39"/>
       <c r="P59" s="39"/>
       <c r="Q59" s="39"/>
       <c r="R59" s="39"/>
-      <c r="S59" s="49"/>
-      <c r="T59" s="49"/>
+      <c r="S59" s="45"/>
+      <c r="T59" s="45"/>
       <c r="U59" s="32"/>
       <c r="V59" s="32"/>
       <c r="W59" s="32"/>
     </row>
     <row r="60" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="34"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
       <c r="F60" s="37"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="48"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
       <c r="M60" s="39"/>
       <c r="N60" s="39"/>
       <c r="O60" s="39"/>
       <c r="P60" s="39"/>
       <c r="Q60" s="39"/>
       <c r="R60" s="39"/>
-      <c r="S60" s="49"/>
-      <c r="T60" s="49"/>
+      <c r="S60" s="45"/>
+      <c r="T60" s="45"/>
       <c r="U60" s="32"/>
       <c r="V60" s="32"/>
       <c r="W60" s="32"/>
     </row>
     <row r="61" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="34" t="n">
-        <v>25</v>
-      </c>
-      <c r="B61" s="47"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
+        <v>24</v>
+      </c>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
       <c r="F61" s="37" t="str">
         <f aca="false">IF(OR(B61="",B62="",B62="現在"),"",IF(DATEDIF(B61,DATE(YEAR(B62),MONTH(B62)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B61,DATE(YEAR(B62),MONTH(B62)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B61,DATE(YEAR(B62),MONTH(B62)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B61,DATE(YEAR(B62),MONTH(B62)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B61,DATE(YEAR(B62),MONTH(B62)+1,0)+1,"y")&amp;"年"),DATEDIF(B61,DATE(YEAR(B62),MONTH(B62)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="48"/>
-      <c r="K61" s="48"/>
-      <c r="L61" s="48"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="44"/>
       <c r="M61" s="39"/>
       <c r="N61" s="39"/>
       <c r="O61" s="39"/>
       <c r="P61" s="39"/>
       <c r="Q61" s="39"/>
       <c r="R61" s="39"/>
-      <c r="S61" s="49"/>
-      <c r="T61" s="49"/>
+      <c r="S61" s="45"/>
+      <c r="T61" s="45"/>
       <c r="U61" s="32"/>
       <c r="V61" s="32"/>
       <c r="W61" s="32"/>
     </row>
     <row r="62" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="34"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
       <c r="F62" s="37"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="48"/>
-      <c r="L62" s="48"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="44"/>
       <c r="M62" s="39"/>
       <c r="N62" s="39"/>
       <c r="O62" s="39"/>
       <c r="P62" s="39"/>
       <c r="Q62" s="39"/>
       <c r="R62" s="39"/>
-      <c r="S62" s="49"/>
-      <c r="T62" s="49"/>
+      <c r="S62" s="45"/>
+      <c r="T62" s="45"/>
       <c r="U62" s="32"/>
       <c r="V62" s="32"/>
       <c r="W62" s="32"/>
     </row>
     <row r="63" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="34" t="n">
-        <v>26</v>
-      </c>
-      <c r="B63" s="47"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
+        <v>25</v>
+      </c>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
       <c r="F63" s="37" t="str">
         <f aca="false">IF(OR(B63="",B64="",B64="現在"),"",IF(DATEDIF(B63,DATE(YEAR(B64),MONTH(B64)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B63,DATE(YEAR(B64),MONTH(B64)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B63,DATE(YEAR(B64),MONTH(B64)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B63,DATE(YEAR(B64),MONTH(B64)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B63,DATE(YEAR(B64),MONTH(B64)+1,0)+1,"y")&amp;"年"),DATEDIF(B63,DATE(YEAR(B64),MONTH(B64)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="48"/>
-      <c r="L63" s="48"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="44"/>
       <c r="M63" s="39"/>
       <c r="N63" s="39"/>
       <c r="O63" s="39"/>
       <c r="P63" s="39"/>
       <c r="Q63" s="39"/>
       <c r="R63" s="39"/>
-      <c r="S63" s="49"/>
-      <c r="T63" s="49"/>
+      <c r="S63" s="45"/>
+      <c r="T63" s="45"/>
       <c r="U63" s="32"/>
       <c r="V63" s="32"/>
       <c r="W63" s="32"/>
     </row>
     <row r="64" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="34"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
       <c r="F64" s="37"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="48"/>
-      <c r="K64" s="48"/>
-      <c r="L64" s="48"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="44"/>
       <c r="M64" s="39"/>
       <c r="N64" s="39"/>
       <c r="O64" s="39"/>
       <c r="P64" s="39"/>
       <c r="Q64" s="39"/>
       <c r="R64" s="39"/>
-      <c r="S64" s="49"/>
-      <c r="T64" s="49"/>
+      <c r="S64" s="45"/>
+      <c r="T64" s="45"/>
       <c r="U64" s="32"/>
       <c r="V64" s="32"/>
       <c r="W64" s="32"/>
     </row>
     <row r="65" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="34" t="n">
-        <v>27</v>
-      </c>
-      <c r="B65" s="47"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
+        <v>26</v>
+      </c>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
       <c r="F65" s="37" t="str">
         <f aca="false">IF(OR(B65="",B66="",B66="現在"),"",IF(DATEDIF(B65,DATE(YEAR(B66),MONTH(B66)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B65,DATE(YEAR(B66),MONTH(B66)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B65,DATE(YEAR(B66),MONTH(B66)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B65,DATE(YEAR(B66),MONTH(B66)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B65,DATE(YEAR(B66),MONTH(B66)+1,0)+1,"y")&amp;"年"),DATEDIF(B65,DATE(YEAR(B66),MONTH(B66)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="48"/>
-      <c r="K65" s="48"/>
-      <c r="L65" s="48"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="44"/>
       <c r="M65" s="39"/>
       <c r="N65" s="39"/>
       <c r="O65" s="39"/>
       <c r="P65" s="39"/>
       <c r="Q65" s="39"/>
       <c r="R65" s="39"/>
-      <c r="S65" s="49"/>
-      <c r="T65" s="49"/>
+      <c r="S65" s="45"/>
+      <c r="T65" s="45"/>
       <c r="U65" s="32"/>
       <c r="V65" s="32"/>
       <c r="W65" s="32"/>
     </row>
     <row r="66" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="34"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
       <c r="F66" s="37"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="48"/>
-      <c r="L66" s="48"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="44"/>
       <c r="M66" s="39"/>
       <c r="N66" s="39"/>
       <c r="O66" s="39"/>
       <c r="P66" s="39"/>
       <c r="Q66" s="39"/>
       <c r="R66" s="39"/>
-      <c r="S66" s="49"/>
-      <c r="T66" s="49"/>
+      <c r="S66" s="45"/>
+      <c r="T66" s="45"/>
       <c r="U66" s="32"/>
       <c r="V66" s="32"/>
       <c r="W66" s="32"/>
     </row>
     <row r="67" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="34" t="n">
-        <v>28</v>
-      </c>
-      <c r="B67" s="47"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
+        <v>27</v>
+      </c>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
       <c r="F67" s="37" t="str">
         <f aca="false">IF(OR(B67="",B68="",B68="現在"),"",IF(DATEDIF(B67,DATE(YEAR(B68),MONTH(B68)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B67,DATE(YEAR(B68),MONTH(B68)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B67,DATE(YEAR(B68),MONTH(B68)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B67,DATE(YEAR(B68),MONTH(B68)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B67,DATE(YEAR(B68),MONTH(B68)+1,0)+1,"y")&amp;"年"),DATEDIF(B67,DATE(YEAR(B68),MONTH(B68)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="48"/>
-      <c r="L67" s="48"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
       <c r="M67" s="39"/>
       <c r="N67" s="39"/>
       <c r="O67" s="39"/>
       <c r="P67" s="39"/>
       <c r="Q67" s="39"/>
       <c r="R67" s="39"/>
-      <c r="S67" s="49"/>
-      <c r="T67" s="49"/>
+      <c r="S67" s="45"/>
+      <c r="T67" s="45"/>
       <c r="U67" s="32"/>
       <c r="V67" s="32"/>
       <c r="W67" s="32"/>
     </row>
     <row r="68" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="34"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
       <c r="F68" s="37"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="48"/>
-      <c r="K68" s="48"/>
-      <c r="L68" s="48"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="44"/>
       <c r="M68" s="39"/>
       <c r="N68" s="39"/>
       <c r="O68" s="39"/>
       <c r="P68" s="39"/>
       <c r="Q68" s="39"/>
       <c r="R68" s="39"/>
-      <c r="S68" s="49"/>
-      <c r="T68" s="49"/>
+      <c r="S68" s="45"/>
+      <c r="T68" s="45"/>
       <c r="U68" s="32"/>
       <c r="V68" s="32"/>
       <c r="W68" s="32"/>
     </row>
     <row r="69" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="34" t="n">
-        <v>29</v>
-      </c>
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
+        <v>28</v>
+      </c>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
       <c r="F69" s="37" t="str">
         <f aca="false">IF(OR(B69="",B70="",B70="現在"),"",IF(DATEDIF(B69,DATE(YEAR(B70),MONTH(B70)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B69,DATE(YEAR(B70),MONTH(B70)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B69,DATE(YEAR(B70),MONTH(B70)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B69,DATE(YEAR(B70),MONTH(B70)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B69,DATE(YEAR(B70),MONTH(B70)+1,0)+1,"y")&amp;"年"),DATEDIF(B69,DATE(YEAR(B70),MONTH(B70)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="48"/>
-      <c r="L69" s="48"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
       <c r="M69" s="39"/>
       <c r="N69" s="39"/>
       <c r="O69" s="39"/>
       <c r="P69" s="39"/>
       <c r="Q69" s="39"/>
       <c r="R69" s="39"/>
-      <c r="S69" s="49"/>
-      <c r="T69" s="49"/>
+      <c r="S69" s="45"/>
+      <c r="T69" s="45"/>
       <c r="U69" s="32"/>
       <c r="V69" s="32"/>
       <c r="W69" s="32"/>
     </row>
     <row r="70" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="34"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
       <c r="F70" s="37"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="48"/>
-      <c r="K70" s="48"/>
-      <c r="L70" s="48"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="44"/>
       <c r="M70" s="39"/>
       <c r="N70" s="39"/>
       <c r="O70" s="39"/>
       <c r="P70" s="39"/>
       <c r="Q70" s="39"/>
       <c r="R70" s="39"/>
-      <c r="S70" s="49"/>
-      <c r="T70" s="49"/>
+      <c r="S70" s="45"/>
+      <c r="T70" s="45"/>
       <c r="U70" s="32"/>
       <c r="V70" s="32"/>
       <c r="W70" s="32"/>
     </row>
     <row r="71" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="34" t="n">
-        <v>30</v>
-      </c>
-      <c r="B71" s="47"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
+        <v>29</v>
+      </c>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
       <c r="F71" s="37" t="str">
         <f aca="false">IF(OR(B71="",B72="",B72="現在"),"",IF(DATEDIF(B71,DATE(YEAR(B72),MONTH(B72)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B71,DATE(YEAR(B72),MONTH(B72)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B71,DATE(YEAR(B72),MONTH(B72)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B71,DATE(YEAR(B72),MONTH(B72)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B71,DATE(YEAR(B72),MONTH(B72)+1,0)+1,"y")&amp;"年"),DATEDIF(B71,DATE(YEAR(B72),MONTH(B72)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="48"/>
-      <c r="K71" s="48"/>
-      <c r="L71" s="48"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
       <c r="M71" s="39"/>
       <c r="N71" s="39"/>
       <c r="O71" s="39"/>
       <c r="P71" s="39"/>
       <c r="Q71" s="39"/>
       <c r="R71" s="39"/>
-      <c r="S71" s="49"/>
-      <c r="T71" s="49"/>
+      <c r="S71" s="45"/>
+      <c r="T71" s="45"/>
       <c r="U71" s="32"/>
       <c r="V71" s="32"/>
       <c r="W71" s="32"/>
     </row>
     <row r="72" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="34"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
       <c r="F72" s="37"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="48"/>
-      <c r="K72" s="48"/>
-      <c r="L72" s="48"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="44"/>
       <c r="M72" s="39"/>
       <c r="N72" s="39"/>
       <c r="O72" s="39"/>
       <c r="P72" s="39"/>
       <c r="Q72" s="39"/>
       <c r="R72" s="39"/>
-      <c r="S72" s="49"/>
-      <c r="T72" s="49"/>
+      <c r="S72" s="45"/>
+      <c r="T72" s="45"/>
       <c r="U72" s="32"/>
       <c r="V72" s="32"/>
       <c r="W72" s="32"/>
     </row>
     <row r="73" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="34" t="n">
-        <v>31</v>
-      </c>
-      <c r="B73" s="47"/>
-      <c r="C73" s="47"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47"/>
+        <v>30</v>
+      </c>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
       <c r="F73" s="37" t="str">
         <f aca="false">IF(OR(B73="",B74="",B74="現在"),"",IF(DATEDIF(B73,DATE(YEAR(B74),MONTH(B74)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B73,DATE(YEAR(B74),MONTH(B74)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B73,DATE(YEAR(B74),MONTH(B74)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B73,DATE(YEAR(B74),MONTH(B74)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B73,DATE(YEAR(B74),MONTH(B74)+1,0)+1,"y")&amp;"年"),DATEDIF(B73,DATE(YEAR(B74),MONTH(B74)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G73" s="48"/>
-      <c r="H73" s="48"/>
-      <c r="I73" s="48"/>
-      <c r="J73" s="48"/>
-      <c r="K73" s="48"/>
-      <c r="L73" s="48"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="44"/>
       <c r="M73" s="39"/>
       <c r="N73" s="39"/>
       <c r="O73" s="39"/>
       <c r="P73" s="39"/>
       <c r="Q73" s="39"/>
       <c r="R73" s="39"/>
-      <c r="S73" s="49"/>
-      <c r="T73" s="49"/>
+      <c r="S73" s="45"/>
+      <c r="T73" s="45"/>
       <c r="U73" s="32"/>
       <c r="V73" s="32"/>
       <c r="W73" s="32"/>
     </row>
     <row r="74" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="34"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
       <c r="F74" s="37"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="48"/>
-      <c r="I74" s="48"/>
-      <c r="J74" s="48"/>
-      <c r="K74" s="48"/>
-      <c r="L74" s="48"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="44"/>
       <c r="M74" s="39"/>
       <c r="N74" s="39"/>
       <c r="O74" s="39"/>
       <c r="P74" s="39"/>
       <c r="Q74" s="39"/>
       <c r="R74" s="39"/>
-      <c r="S74" s="49"/>
-      <c r="T74" s="49"/>
+      <c r="S74" s="45"/>
+      <c r="T74" s="45"/>
       <c r="U74" s="32"/>
       <c r="V74" s="32"/>
       <c r="W74" s="32"/>
     </row>
     <row r="75" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="34" t="n">
-        <v>32</v>
-      </c>
-      <c r="B75" s="47"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
+        <v>31</v>
+      </c>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
       <c r="F75" s="37" t="str">
         <f aca="false">IF(OR(B75="",B76="",B76="現在"),"",IF(DATEDIF(B75,DATE(YEAR(B76),MONTH(B76)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B75,DATE(YEAR(B76),MONTH(B76)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B75,DATE(YEAR(B76),MONTH(B76)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B75,DATE(YEAR(B76),MONTH(B76)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B75,DATE(YEAR(B76),MONTH(B76)+1,0)+1,"y")&amp;"年"),DATEDIF(B75,DATE(YEAR(B76),MONTH(B76)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="48"/>
-      <c r="J75" s="48"/>
-      <c r="K75" s="48"/>
-      <c r="L75" s="48"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="44"/>
+      <c r="L75" s="44"/>
       <c r="M75" s="39"/>
       <c r="N75" s="39"/>
       <c r="O75" s="39"/>
       <c r="P75" s="39"/>
       <c r="Q75" s="39"/>
       <c r="R75" s="39"/>
-      <c r="S75" s="49"/>
-      <c r="T75" s="49"/>
+      <c r="S75" s="45"/>
+      <c r="T75" s="45"/>
       <c r="U75" s="32"/>
       <c r="V75" s="32"/>
       <c r="W75" s="32"/>
     </row>
     <row r="76" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="34"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
       <c r="F76" s="37"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="48"/>
-      <c r="I76" s="48"/>
-      <c r="J76" s="48"/>
-      <c r="K76" s="48"/>
-      <c r="L76" s="48"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
+      <c r="K76" s="44"/>
+      <c r="L76" s="44"/>
       <c r="M76" s="39"/>
       <c r="N76" s="39"/>
       <c r="O76" s="39"/>
       <c r="P76" s="39"/>
       <c r="Q76" s="39"/>
       <c r="R76" s="39"/>
-      <c r="S76" s="49"/>
-      <c r="T76" s="49"/>
+      <c r="S76" s="45"/>
+      <c r="T76" s="45"/>
       <c r="U76" s="32"/>
       <c r="V76" s="32"/>
       <c r="W76" s="32"/>
     </row>
     <row r="77" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="34" t="n">
-        <v>33</v>
-      </c>
-      <c r="B77" s="47"/>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="47"/>
+        <v>32</v>
+      </c>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
       <c r="F77" s="37" t="str">
         <f aca="false">IF(OR(B77="",B78="",B78="現在"),"",IF(DATEDIF(B77,DATE(YEAR(B78),MONTH(B78)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B77,DATE(YEAR(B78),MONTH(B78)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B77,DATE(YEAR(B78),MONTH(B78)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B77,DATE(YEAR(B78),MONTH(B78)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B77,DATE(YEAR(B78),MONTH(B78)+1,0)+1,"y")&amp;"年"),DATEDIF(B77,DATE(YEAR(B78),MONTH(B78)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G77" s="48"/>
-      <c r="H77" s="48"/>
-      <c r="I77" s="48"/>
-      <c r="J77" s="48"/>
-      <c r="K77" s="48"/>
-      <c r="L77" s="48"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="44"/>
       <c r="M77" s="39"/>
       <c r="N77" s="39"/>
       <c r="O77" s="39"/>
       <c r="P77" s="39"/>
       <c r="Q77" s="39"/>
       <c r="R77" s="39"/>
-      <c r="S77" s="49"/>
-      <c r="T77" s="49"/>
+      <c r="S77" s="45"/>
+      <c r="T77" s="45"/>
       <c r="U77" s="32"/>
       <c r="V77" s="32"/>
       <c r="W77" s="32"/>
     </row>
     <row r="78" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="34"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="41"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
       <c r="F78" s="37"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="48"/>
-      <c r="J78" s="48"/>
-      <c r="K78" s="48"/>
-      <c r="L78" s="48"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="44"/>
+      <c r="L78" s="44"/>
       <c r="M78" s="39"/>
       <c r="N78" s="39"/>
       <c r="O78" s="39"/>
       <c r="P78" s="39"/>
       <c r="Q78" s="39"/>
       <c r="R78" s="39"/>
-      <c r="S78" s="49"/>
-      <c r="T78" s="49"/>
+      <c r="S78" s="45"/>
+      <c r="T78" s="45"/>
       <c r="U78" s="32"/>
       <c r="V78" s="32"/>
       <c r="W78" s="32"/>
     </row>
     <row r="79" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="34" t="n">
-        <v>34</v>
-      </c>
-      <c r="B79" s="47"/>
-      <c r="C79" s="47"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="47"/>
+        <v>33</v>
+      </c>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
       <c r="F79" s="37" t="str">
         <f aca="false">IF(OR(B79="",B80="",B80="現在"),"",IF(DATEDIF(B79,DATE(YEAR(B80),MONTH(B80)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B79,DATE(YEAR(B80),MONTH(B80)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B79,DATE(YEAR(B80),MONTH(B80)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B79,DATE(YEAR(B80),MONTH(B80)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B79,DATE(YEAR(B80),MONTH(B80)+1,0)+1,"y")&amp;"年"),DATEDIF(B79,DATE(YEAR(B80),MONTH(B80)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G79" s="48"/>
-      <c r="H79" s="48"/>
-      <c r="I79" s="48"/>
-      <c r="J79" s="48"/>
-      <c r="K79" s="48"/>
-      <c r="L79" s="48"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="44"/>
+      <c r="K79" s="44"/>
+      <c r="L79" s="44"/>
       <c r="M79" s="39"/>
       <c r="N79" s="39"/>
       <c r="O79" s="39"/>
       <c r="P79" s="39"/>
       <c r="Q79" s="39"/>
       <c r="R79" s="39"/>
-      <c r="S79" s="49"/>
-      <c r="T79" s="49"/>
+      <c r="S79" s="45"/>
+      <c r="T79" s="45"/>
       <c r="U79" s="32"/>
       <c r="V79" s="32"/>
       <c r="W79" s="32"/>
     </row>
     <row r="80" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="34"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="41"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
       <c r="F80" s="37"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="48"/>
-      <c r="I80" s="48"/>
-      <c r="J80" s="48"/>
-      <c r="K80" s="48"/>
-      <c r="L80" s="48"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="44"/>
+      <c r="J80" s="44"/>
+      <c r="K80" s="44"/>
+      <c r="L80" s="44"/>
       <c r="M80" s="39"/>
       <c r="N80" s="39"/>
       <c r="O80" s="39"/>
       <c r="P80" s="39"/>
       <c r="Q80" s="39"/>
       <c r="R80" s="39"/>
-      <c r="S80" s="49"/>
-      <c r="T80" s="49"/>
+      <c r="S80" s="45"/>
+      <c r="T80" s="45"/>
       <c r="U80" s="32"/>
       <c r="V80" s="32"/>
       <c r="W80" s="32"/>
     </row>
     <row r="81" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="34" t="n">
-        <v>35</v>
-      </c>
-      <c r="B81" s="47"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="47"/>
+        <v>34</v>
+      </c>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
       <c r="F81" s="37" t="str">
         <f aca="false">IF(OR(B81="",B82="",B82="現在"),"",IF(DATEDIF(B81,DATE(YEAR(B82),MONTH(B82)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B81,DATE(YEAR(B82),MONTH(B82)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B81,DATE(YEAR(B82),MONTH(B82)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B81,DATE(YEAR(B82),MONTH(B82)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B81,DATE(YEAR(B82),MONTH(B82)+1,0)+1,"y")&amp;"年"),DATEDIF(B81,DATE(YEAR(B82),MONTH(B82)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G81" s="48"/>
-      <c r="H81" s="48"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="48"/>
-      <c r="K81" s="48"/>
-      <c r="L81" s="48"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="44"/>
+      <c r="J81" s="44"/>
+      <c r="K81" s="44"/>
+      <c r="L81" s="44"/>
       <c r="M81" s="39"/>
       <c r="N81" s="39"/>
       <c r="O81" s="39"/>
       <c r="P81" s="39"/>
       <c r="Q81" s="39"/>
       <c r="R81" s="39"/>
-      <c r="S81" s="49"/>
-      <c r="T81" s="49"/>
+      <c r="S81" s="45"/>
+      <c r="T81" s="45"/>
       <c r="U81" s="32"/>
       <c r="V81" s="32"/>
       <c r="W81" s="32"/>
     </row>
     <row r="82" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="34"/>
-      <c r="B82" s="41"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="41"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
       <c r="F82" s="37"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="48"/>
-      <c r="J82" s="48"/>
-      <c r="K82" s="48"/>
-      <c r="L82" s="48"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="44"/>
+      <c r="L82" s="44"/>
       <c r="M82" s="39"/>
       <c r="N82" s="39"/>
       <c r="O82" s="39"/>
       <c r="P82" s="39"/>
       <c r="Q82" s="39"/>
       <c r="R82" s="39"/>
-      <c r="S82" s="49"/>
-      <c r="T82" s="49"/>
+      <c r="S82" s="45"/>
+      <c r="T82" s="45"/>
       <c r="U82" s="32"/>
       <c r="V82" s="32"/>
       <c r="W82" s="32"/>
     </row>
     <row r="83" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="34" t="n">
-        <v>36</v>
-      </c>
-      <c r="B83" s="47"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47"/>
+        <v>35</v>
+      </c>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
       <c r="F83" s="37" t="str">
         <f aca="false">IF(OR(B83="",B84="",B84="現在"),"",IF(DATEDIF(B83,DATE(YEAR(B84),MONTH(B84)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B83,DATE(YEAR(B84),MONTH(B84)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B83,DATE(YEAR(B84),MONTH(B84)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B83,DATE(YEAR(B84),MONTH(B84)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B83,DATE(YEAR(B84),MONTH(B84)+1,0)+1,"y")&amp;"年"),DATEDIF(B83,DATE(YEAR(B84),MONTH(B84)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G83" s="48"/>
-      <c r="H83" s="48"/>
-      <c r="I83" s="48"/>
-      <c r="J83" s="48"/>
-      <c r="K83" s="48"/>
-      <c r="L83" s="48"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
+      <c r="J83" s="44"/>
+      <c r="K83" s="44"/>
+      <c r="L83" s="44"/>
       <c r="M83" s="39"/>
       <c r="N83" s="39"/>
       <c r="O83" s="39"/>
       <c r="P83" s="39"/>
       <c r="Q83" s="39"/>
       <c r="R83" s="39"/>
-      <c r="S83" s="49"/>
-      <c r="T83" s="49"/>
+      <c r="S83" s="45"/>
+      <c r="T83" s="45"/>
       <c r="U83" s="32"/>
       <c r="V83" s="32"/>
       <c r="W83" s="32"/>
     </row>
     <row r="84" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="34"/>
-      <c r="B84" s="41"/>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
       <c r="F84" s="37"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="48"/>
-      <c r="J84" s="48"/>
-      <c r="K84" s="48"/>
-      <c r="L84" s="48"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="44"/>
+      <c r="J84" s="44"/>
+      <c r="K84" s="44"/>
+      <c r="L84" s="44"/>
       <c r="M84" s="39"/>
       <c r="N84" s="39"/>
       <c r="O84" s="39"/>
       <c r="P84" s="39"/>
       <c r="Q84" s="39"/>
       <c r="R84" s="39"/>
-      <c r="S84" s="49"/>
-      <c r="T84" s="49"/>
+      <c r="S84" s="45"/>
+      <c r="T84" s="45"/>
       <c r="U84" s="32"/>
       <c r="V84" s="32"/>
       <c r="W84" s="32"/>
     </row>
     <row r="85" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="34" t="n">
-        <v>37</v>
-      </c>
-      <c r="B85" s="47"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
+        <v>36</v>
+      </c>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
       <c r="F85" s="37" t="str">
         <f aca="false">IF(OR(B85="",B86="",B86="現在"),"",IF(DATEDIF(B85,DATE(YEAR(B86),MONTH(B86)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B85,DATE(YEAR(B86),MONTH(B86)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B85,DATE(YEAR(B86),MONTH(B86)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B85,DATE(YEAR(B86),MONTH(B86)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B85,DATE(YEAR(B86),MONTH(B86)+1,0)+1,"y")&amp;"年"),DATEDIF(B85,DATE(YEAR(B86),MONTH(B86)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G85" s="48"/>
-      <c r="H85" s="48"/>
-      <c r="I85" s="48"/>
-      <c r="J85" s="48"/>
-      <c r="K85" s="48"/>
-      <c r="L85" s="48"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="44"/>
+      <c r="K85" s="44"/>
+      <c r="L85" s="44"/>
       <c r="M85" s="39"/>
       <c r="N85" s="39"/>
       <c r="O85" s="39"/>
       <c r="P85" s="39"/>
       <c r="Q85" s="39"/>
       <c r="R85" s="39"/>
-      <c r="S85" s="49"/>
-      <c r="T85" s="49"/>
+      <c r="S85" s="45"/>
+      <c r="T85" s="45"/>
       <c r="U85" s="32"/>
       <c r="V85" s="32"/>
       <c r="W85" s="32"/>
     </row>
     <row r="86" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="34"/>
-      <c r="B86" s="41"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="41"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
       <c r="F86" s="37"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="48"/>
-      <c r="I86" s="48"/>
-      <c r="J86" s="48"/>
-      <c r="K86" s="48"/>
-      <c r="L86" s="48"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="44"/>
+      <c r="L86" s="44"/>
       <c r="M86" s="39"/>
       <c r="N86" s="39"/>
       <c r="O86" s="39"/>
       <c r="P86" s="39"/>
       <c r="Q86" s="39"/>
       <c r="R86" s="39"/>
-      <c r="S86" s="49"/>
-      <c r="T86" s="49"/>
+      <c r="S86" s="45"/>
+      <c r="T86" s="45"/>
       <c r="U86" s="32"/>
       <c r="V86" s="32"/>
       <c r="W86" s="32"/>
     </row>
     <row r="87" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="34" t="n">
-        <v>38</v>
-      </c>
-      <c r="B87" s="47"/>
-      <c r="C87" s="47"/>
-      <c r="D87" s="47"/>
-      <c r="E87" s="47"/>
+        <v>37</v>
+      </c>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
       <c r="F87" s="37" t="str">
         <f aca="false">IF(OR(B87="",B88="",B88="現在"),"",IF(DATEDIF(B87,DATE(YEAR(B88),MONTH(B88)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B87,DATE(YEAR(B88),MONTH(B88)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B87,DATE(YEAR(B88),MONTH(B88)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B87,DATE(YEAR(B88),MONTH(B88)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B87,DATE(YEAR(B88),MONTH(B88)+1,0)+1,"y")&amp;"年"),DATEDIF(B87,DATE(YEAR(B88),MONTH(B88)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G87" s="48"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="48"/>
-      <c r="J87" s="48"/>
-      <c r="K87" s="48"/>
-      <c r="L87" s="48"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="44"/>
       <c r="M87" s="39"/>
       <c r="N87" s="39"/>
       <c r="O87" s="39"/>
       <c r="P87" s="39"/>
       <c r="Q87" s="39"/>
       <c r="R87" s="39"/>
-      <c r="S87" s="49"/>
-      <c r="T87" s="49"/>
+      <c r="S87" s="45"/>
+      <c r="T87" s="45"/>
       <c r="U87" s="32"/>
       <c r="V87" s="32"/>
       <c r="W87" s="32"/>
     </row>
     <row r="88" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="34"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="41"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="41"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
       <c r="F88" s="37"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="48"/>
-      <c r="K88" s="48"/>
-      <c r="L88" s="48"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="44"/>
       <c r="M88" s="39"/>
       <c r="N88" s="39"/>
       <c r="O88" s="39"/>
       <c r="P88" s="39"/>
       <c r="Q88" s="39"/>
       <c r="R88" s="39"/>
-      <c r="S88" s="49"/>
-      <c r="T88" s="49"/>
+      <c r="S88" s="45"/>
+      <c r="T88" s="45"/>
       <c r="U88" s="32"/>
       <c r="V88" s="32"/>
       <c r="W88" s="32"/>
     </row>
     <row r="89" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="34" t="n">
-        <v>39</v>
-      </c>
-      <c r="B89" s="47"/>
-      <c r="C89" s="47"/>
-      <c r="D89" s="47"/>
-      <c r="E89" s="47"/>
+        <v>38</v>
+      </c>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
       <c r="F89" s="37" t="str">
         <f aca="false">IF(OR(B89="",B90="",B90="現在"),"",IF(DATEDIF(B89,DATE(YEAR(B90),MONTH(B90)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B89,DATE(YEAR(B90),MONTH(B90)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B89,DATE(YEAR(B90),MONTH(B90)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B89,DATE(YEAR(B90),MONTH(B90)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B89,DATE(YEAR(B90),MONTH(B90)+1,0)+1,"y")&amp;"年"),DATEDIF(B89,DATE(YEAR(B90),MONTH(B90)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G89" s="48"/>
-      <c r="H89" s="48"/>
-      <c r="I89" s="48"/>
-      <c r="J89" s="48"/>
-      <c r="K89" s="48"/>
-      <c r="L89" s="48"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="44"/>
+      <c r="K89" s="44"/>
+      <c r="L89" s="44"/>
       <c r="M89" s="39"/>
       <c r="N89" s="39"/>
       <c r="O89" s="39"/>
       <c r="P89" s="39"/>
       <c r="Q89" s="39"/>
       <c r="R89" s="39"/>
-      <c r="S89" s="49"/>
-      <c r="T89" s="49"/>
+      <c r="S89" s="45"/>
+      <c r="T89" s="45"/>
       <c r="U89" s="32"/>
       <c r="V89" s="32"/>
       <c r="W89" s="32"/>
     </row>
     <row r="90" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="34"/>
-      <c r="B90" s="41"/>
-      <c r="C90" s="41"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="41"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
       <c r="F90" s="37"/>
-      <c r="G90" s="48"/>
-      <c r="H90" s="48"/>
-      <c r="I90" s="48"/>
-      <c r="J90" s="48"/>
-      <c r="K90" s="48"/>
-      <c r="L90" s="48"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44"/>
+      <c r="K90" s="44"/>
+      <c r="L90" s="44"/>
       <c r="M90" s="39"/>
       <c r="N90" s="39"/>
       <c r="O90" s="39"/>
       <c r="P90" s="39"/>
       <c r="Q90" s="39"/>
       <c r="R90" s="39"/>
-      <c r="S90" s="49"/>
-      <c r="T90" s="49"/>
+      <c r="S90" s="45"/>
+      <c r="T90" s="45"/>
       <c r="U90" s="32"/>
       <c r="V90" s="32"/>
       <c r="W90" s="32"/>
     </row>
     <row r="91" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="B91" s="47"/>
-      <c r="C91" s="47"/>
-      <c r="D91" s="47"/>
-      <c r="E91" s="47"/>
+        <v>39</v>
+      </c>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
       <c r="F91" s="37" t="str">
         <f aca="false">IF(OR(B91="",B92="",B92="現在"),"",IF(DATEDIF(B91,DATE(YEAR(B92),MONTH(B92)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B91,DATE(YEAR(B92),MONTH(B92)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B91,DATE(YEAR(B92),MONTH(B92)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B91,DATE(YEAR(B92),MONTH(B92)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B91,DATE(YEAR(B92),MONTH(B92)+1,0)+1,"y")&amp;"年"),DATEDIF(B91,DATE(YEAR(B92),MONTH(B92)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G91" s="48"/>
-      <c r="H91" s="48"/>
-      <c r="I91" s="48"/>
-      <c r="J91" s="48"/>
-      <c r="K91" s="48"/>
-      <c r="L91" s="48"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="44"/>
       <c r="M91" s="39"/>
       <c r="N91" s="39"/>
       <c r="O91" s="39"/>
       <c r="P91" s="39"/>
       <c r="Q91" s="39"/>
       <c r="R91" s="39"/>
-      <c r="S91" s="49"/>
-      <c r="T91" s="49"/>
+      <c r="S91" s="45"/>
+      <c r="T91" s="45"/>
       <c r="U91" s="32"/>
       <c r="V91" s="32"/>
       <c r="W91" s="32"/>
     </row>
     <row r="92" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="34"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="41"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
       <c r="F92" s="37"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="48"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="48"/>
-      <c r="L92" s="48"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="44"/>
+      <c r="I92" s="44"/>
+      <c r="J92" s="44"/>
+      <c r="K92" s="44"/>
+      <c r="L92" s="44"/>
       <c r="M92" s="39"/>
       <c r="N92" s="39"/>
       <c r="O92" s="39"/>
       <c r="P92" s="39"/>
       <c r="Q92" s="39"/>
       <c r="R92" s="39"/>
-      <c r="S92" s="49"/>
-      <c r="T92" s="49"/>
+      <c r="S92" s="45"/>
+      <c r="T92" s="45"/>
       <c r="U92" s="32"/>
       <c r="V92" s="32"/>
       <c r="W92" s="32"/>
     </row>
     <row r="93" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="34" t="n">
-        <v>41</v>
-      </c>
-      <c r="B93" s="47"/>
-      <c r="C93" s="47"/>
-      <c r="D93" s="47"/>
-      <c r="E93" s="47"/>
+        <v>40</v>
+      </c>
+      <c r="B93" s="36"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
       <c r="F93" s="37" t="str">
         <f aca="false">IF(OR(B93="",B94="",B94="現在"),"",IF(DATEDIF(B93,DATE(YEAR(B94),MONTH(B94)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B93,DATE(YEAR(B94),MONTH(B94)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B93,DATE(YEAR(B94),MONTH(B94)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B93,DATE(YEAR(B94),MONTH(B94)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B93,DATE(YEAR(B94),MONTH(B94)+1,0)+1,"y")&amp;"年"),DATEDIF(B93,DATE(YEAR(B94),MONTH(B94)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G93" s="48"/>
-      <c r="H93" s="48"/>
-      <c r="I93" s="48"/>
-      <c r="J93" s="48"/>
-      <c r="K93" s="48"/>
-      <c r="L93" s="48"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="44"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="44"/>
+      <c r="K93" s="44"/>
+      <c r="L93" s="44"/>
       <c r="M93" s="39"/>
       <c r="N93" s="39"/>
       <c r="O93" s="39"/>
       <c r="P93" s="39"/>
       <c r="Q93" s="39"/>
       <c r="R93" s="39"/>
-      <c r="S93" s="49"/>
-      <c r="T93" s="49"/>
+      <c r="S93" s="45"/>
+      <c r="T93" s="45"/>
       <c r="U93" s="32"/>
       <c r="V93" s="32"/>
       <c r="W93" s="32"/>
     </row>
     <row r="94" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="34"/>
-      <c r="B94" s="41"/>
-      <c r="C94" s="41"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="41"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
       <c r="F94" s="37"/>
-      <c r="G94" s="48"/>
-      <c r="H94" s="48"/>
-      <c r="I94" s="48"/>
-      <c r="J94" s="48"/>
-      <c r="K94" s="48"/>
-      <c r="L94" s="48"/>
+      <c r="G94" s="44"/>
+      <c r="H94" s="44"/>
+      <c r="I94" s="44"/>
+      <c r="J94" s="44"/>
+      <c r="K94" s="44"/>
+      <c r="L94" s="44"/>
       <c r="M94" s="39"/>
       <c r="N94" s="39"/>
       <c r="O94" s="39"/>
       <c r="P94" s="39"/>
       <c r="Q94" s="39"/>
       <c r="R94" s="39"/>
-      <c r="S94" s="49"/>
-      <c r="T94" s="49"/>
+      <c r="S94" s="45"/>
+      <c r="T94" s="45"/>
       <c r="U94" s="32"/>
       <c r="V94" s="32"/>
       <c r="W94" s="32"/>
     </row>
     <row r="95" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="34" t="n">
-        <v>42</v>
-      </c>
-      <c r="B95" s="47"/>
-      <c r="C95" s="47"/>
-      <c r="D95" s="47"/>
-      <c r="E95" s="47"/>
+        <v>41</v>
+      </c>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
       <c r="F95" s="37" t="str">
         <f aca="false">IF(OR(B95="",B96="",B96="現在"),"",IF(DATEDIF(B95,DATE(YEAR(B96),MONTH(B96)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B95,DATE(YEAR(B96),MONTH(B96)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B95,DATE(YEAR(B96),MONTH(B96)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B95,DATE(YEAR(B96),MONTH(B96)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B95,DATE(YEAR(B96),MONTH(B96)+1,0)+1,"y")&amp;"年"),DATEDIF(B95,DATE(YEAR(B96),MONTH(B96)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G95" s="48"/>
-      <c r="H95" s="48"/>
-      <c r="I95" s="48"/>
-      <c r="J95" s="48"/>
-      <c r="K95" s="48"/>
-      <c r="L95" s="48"/>
+      <c r="G95" s="44"/>
+      <c r="H95" s="44"/>
+      <c r="I95" s="44"/>
+      <c r="J95" s="44"/>
+      <c r="K95" s="44"/>
+      <c r="L95" s="44"/>
       <c r="M95" s="39"/>
       <c r="N95" s="39"/>
       <c r="O95" s="39"/>
       <c r="P95" s="39"/>
       <c r="Q95" s="39"/>
       <c r="R95" s="39"/>
-      <c r="S95" s="49"/>
-      <c r="T95" s="49"/>
+      <c r="S95" s="45"/>
+      <c r="T95" s="45"/>
       <c r="U95" s="32"/>
       <c r="V95" s="32"/>
       <c r="W95" s="32"/>
     </row>
     <row r="96" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="34"/>
-      <c r="B96" s="41"/>
-      <c r="C96" s="41"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="41"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
       <c r="F96" s="37"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="48"/>
-      <c r="J96" s="48"/>
-      <c r="K96" s="48"/>
-      <c r="L96" s="48"/>
+      <c r="G96" s="44"/>
+      <c r="H96" s="44"/>
+      <c r="I96" s="44"/>
+      <c r="J96" s="44"/>
+      <c r="K96" s="44"/>
+      <c r="L96" s="44"/>
       <c r="M96" s="39"/>
       <c r="N96" s="39"/>
       <c r="O96" s="39"/>
       <c r="P96" s="39"/>
       <c r="Q96" s="39"/>
       <c r="R96" s="39"/>
-      <c r="S96" s="49"/>
-      <c r="T96" s="49"/>
+      <c r="S96" s="45"/>
+      <c r="T96" s="45"/>
       <c r="U96" s="32"/>
       <c r="V96" s="32"/>
       <c r="W96" s="32"/>
     </row>
     <row r="97" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="34" t="n">
-        <v>43</v>
-      </c>
-      <c r="B97" s="47"/>
-      <c r="C97" s="47"/>
-      <c r="D97" s="47"/>
-      <c r="E97" s="47"/>
+        <v>42</v>
+      </c>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
       <c r="F97" s="37" t="str">
         <f aca="false">IF(OR(B97="",B98="",B98="現在"),"",IF(DATEDIF(B97,DATE(YEAR(B98),MONTH(B98)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B97,DATE(YEAR(B98),MONTH(B98)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B97,DATE(YEAR(B98),MONTH(B98)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B97,DATE(YEAR(B98),MONTH(B98)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B97,DATE(YEAR(B98),MONTH(B98)+1,0)+1,"y")&amp;"年"),DATEDIF(B97,DATE(YEAR(B98),MONTH(B98)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G97" s="48"/>
-      <c r="H97" s="48"/>
-      <c r="I97" s="48"/>
-      <c r="J97" s="48"/>
-      <c r="K97" s="48"/>
-      <c r="L97" s="48"/>
+      <c r="G97" s="44"/>
+      <c r="H97" s="44"/>
+      <c r="I97" s="44"/>
+      <c r="J97" s="44"/>
+      <c r="K97" s="44"/>
+      <c r="L97" s="44"/>
       <c r="M97" s="39"/>
       <c r="N97" s="39"/>
       <c r="O97" s="39"/>
       <c r="P97" s="39"/>
       <c r="Q97" s="39"/>
       <c r="R97" s="39"/>
-      <c r="S97" s="49"/>
-      <c r="T97" s="49"/>
+      <c r="S97" s="45"/>
+      <c r="T97" s="45"/>
       <c r="U97" s="32"/>
       <c r="V97" s="32"/>
       <c r="W97" s="32"/>
     </row>
     <row r="98" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="34"/>
-      <c r="B98" s="41"/>
-      <c r="C98" s="41"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="41"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
       <c r="F98" s="37"/>
-      <c r="G98" s="48"/>
-      <c r="H98" s="48"/>
-      <c r="I98" s="48"/>
-      <c r="J98" s="48"/>
-      <c r="K98" s="48"/>
-      <c r="L98" s="48"/>
+      <c r="G98" s="44"/>
+      <c r="H98" s="44"/>
+      <c r="I98" s="44"/>
+      <c r="J98" s="44"/>
+      <c r="K98" s="44"/>
+      <c r="L98" s="44"/>
       <c r="M98" s="39"/>
       <c r="N98" s="39"/>
       <c r="O98" s="39"/>
       <c r="P98" s="39"/>
       <c r="Q98" s="39"/>
       <c r="R98" s="39"/>
-      <c r="S98" s="49"/>
-      <c r="T98" s="49"/>
+      <c r="S98" s="45"/>
+      <c r="T98" s="45"/>
       <c r="U98" s="32"/>
       <c r="V98" s="32"/>
       <c r="W98" s="32"/>
     </row>
     <row r="99" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="34" t="n">
-        <v>44</v>
-      </c>
-      <c r="B99" s="47"/>
-      <c r="C99" s="47"/>
-      <c r="D99" s="47"/>
-      <c r="E99" s="47"/>
+        <v>43</v>
+      </c>
+      <c r="B99" s="36"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="36"/>
       <c r="F99" s="37" t="str">
         <f aca="false">IF(OR(B99="",B100="",B100="現在"),"",IF(DATEDIF(B99,DATE(YEAR(B100),MONTH(B100)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B99,DATE(YEAR(B100),MONTH(B100)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B99,DATE(YEAR(B100),MONTH(B100)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B99,DATE(YEAR(B100),MONTH(B100)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B99,DATE(YEAR(B100),MONTH(B100)+1,0)+1,"y")&amp;"年"),DATEDIF(B99,DATE(YEAR(B100),MONTH(B100)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G99" s="48"/>
-      <c r="H99" s="48"/>
-      <c r="I99" s="48"/>
-      <c r="J99" s="48"/>
-      <c r="K99" s="48"/>
-      <c r="L99" s="48"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="44"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="44"/>
+      <c r="K99" s="44"/>
+      <c r="L99" s="44"/>
       <c r="M99" s="39"/>
       <c r="N99" s="39"/>
       <c r="O99" s="39"/>
       <c r="P99" s="39"/>
       <c r="Q99" s="39"/>
       <c r="R99" s="39"/>
-      <c r="S99" s="49"/>
-      <c r="T99" s="49"/>
+      <c r="S99" s="45"/>
+      <c r="T99" s="45"/>
       <c r="U99" s="32"/>
       <c r="V99" s="32"/>
       <c r="W99" s="32"/>
     </row>
     <row r="100" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="34"/>
-      <c r="B100" s="41"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="41"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
       <c r="F100" s="37"/>
-      <c r="G100" s="48"/>
-      <c r="H100" s="48"/>
-      <c r="I100" s="48"/>
-      <c r="J100" s="48"/>
-      <c r="K100" s="48"/>
-      <c r="L100" s="48"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="44"/>
+      <c r="I100" s="44"/>
+      <c r="J100" s="44"/>
+      <c r="K100" s="44"/>
+      <c r="L100" s="44"/>
       <c r="M100" s="39"/>
       <c r="N100" s="39"/>
       <c r="O100" s="39"/>
       <c r="P100" s="39"/>
       <c r="Q100" s="39"/>
       <c r="R100" s="39"/>
-      <c r="S100" s="49"/>
-      <c r="T100" s="49"/>
+      <c r="S100" s="45"/>
+      <c r="T100" s="45"/>
       <c r="U100" s="32"/>
       <c r="V100" s="32"/>
       <c r="W100" s="32"/>
     </row>
     <row r="101" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="34" t="n">
-        <v>45</v>
-      </c>
-      <c r="B101" s="47"/>
-      <c r="C101" s="47"/>
-      <c r="D101" s="47"/>
-      <c r="E101" s="47"/>
+        <v>44</v>
+      </c>
+      <c r="B101" s="36"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
       <c r="F101" s="37" t="str">
         <f aca="false">IF(OR(B101="",B102="",B102="現在"),"",IF(DATEDIF(B101,DATE(YEAR(B102),MONTH(B102)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B101,DATE(YEAR(B102),MONTH(B102)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B101,DATE(YEAR(B102),MONTH(B102)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B101,DATE(YEAR(B102),MONTH(B102)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B101,DATE(YEAR(B102),MONTH(B102)+1,0)+1,"y")&amp;"年"),DATEDIF(B101,DATE(YEAR(B102),MONTH(B102)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G101" s="48"/>
-      <c r="H101" s="48"/>
-      <c r="I101" s="48"/>
-      <c r="J101" s="48"/>
-      <c r="K101" s="48"/>
-      <c r="L101" s="48"/>
+      <c r="G101" s="44"/>
+      <c r="H101" s="44"/>
+      <c r="I101" s="44"/>
+      <c r="J101" s="44"/>
+      <c r="K101" s="44"/>
+      <c r="L101" s="44"/>
       <c r="M101" s="39"/>
       <c r="N101" s="39"/>
       <c r="O101" s="39"/>
       <c r="P101" s="39"/>
       <c r="Q101" s="39"/>
       <c r="R101" s="39"/>
-      <c r="S101" s="49"/>
-      <c r="T101" s="49"/>
+      <c r="S101" s="45"/>
+      <c r="T101" s="45"/>
       <c r="U101" s="32"/>
       <c r="V101" s="32"/>
       <c r="W101" s="32"/>
     </row>
     <row r="102" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="34"/>
-      <c r="B102" s="41"/>
-      <c r="C102" s="41"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
       <c r="F102" s="37"/>
-      <c r="G102" s="48"/>
-      <c r="H102" s="48"/>
-      <c r="I102" s="48"/>
-      <c r="J102" s="48"/>
-      <c r="K102" s="48"/>
-      <c r="L102" s="48"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="44"/>
+      <c r="J102" s="44"/>
+      <c r="K102" s="44"/>
+      <c r="L102" s="44"/>
       <c r="M102" s="39"/>
       <c r="N102" s="39"/>
       <c r="O102" s="39"/>
       <c r="P102" s="39"/>
       <c r="Q102" s="39"/>
       <c r="R102" s="39"/>
-      <c r="S102" s="49"/>
-      <c r="T102" s="49"/>
+      <c r="S102" s="45"/>
+      <c r="T102" s="45"/>
       <c r="U102" s="32"/>
       <c r="V102" s="32"/>
       <c r="W102" s="32"/>
     </row>
     <row r="103" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="34" t="n">
-        <v>46</v>
-      </c>
-      <c r="B103" s="47"/>
-      <c r="C103" s="47"/>
-      <c r="D103" s="47"/>
-      <c r="E103" s="47"/>
+        <v>45</v>
+      </c>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
       <c r="F103" s="37" t="str">
         <f aca="false">IF(OR(B103="",B104="",B104="現在"),"",IF(DATEDIF(B103,DATE(YEAR(B104),MONTH(B104)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B103,DATE(YEAR(B104),MONTH(B104)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B103,DATE(YEAR(B104),MONTH(B104)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B103,DATE(YEAR(B104),MONTH(B104)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B103,DATE(YEAR(B104),MONTH(B104)+1,0)+1,"y")&amp;"年"),DATEDIF(B103,DATE(YEAR(B104),MONTH(B104)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G103" s="48"/>
-      <c r="H103" s="48"/>
-      <c r="I103" s="48"/>
-      <c r="J103" s="48"/>
-      <c r="K103" s="48"/>
-      <c r="L103" s="48"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="44"/>
+      <c r="J103" s="44"/>
+      <c r="K103" s="44"/>
+      <c r="L103" s="44"/>
       <c r="M103" s="39"/>
       <c r="N103" s="39"/>
       <c r="O103" s="39"/>
       <c r="P103" s="39"/>
       <c r="Q103" s="39"/>
       <c r="R103" s="39"/>
-      <c r="S103" s="49"/>
-      <c r="T103" s="49"/>
+      <c r="S103" s="45"/>
+      <c r="T103" s="45"/>
       <c r="U103" s="32"/>
       <c r="V103" s="32"/>
       <c r="W103" s="32"/>
     </row>
     <row r="104" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="34"/>
-      <c r="B104" s="41"/>
-      <c r="C104" s="41"/>
-      <c r="D104" s="41"/>
-      <c r="E104" s="41"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="36"/>
       <c r="F104" s="37"/>
-      <c r="G104" s="48"/>
-      <c r="H104" s="48"/>
-      <c r="I104" s="48"/>
-      <c r="J104" s="48"/>
-      <c r="K104" s="48"/>
-      <c r="L104" s="48"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="44"/>
+      <c r="I104" s="44"/>
+      <c r="J104" s="44"/>
+      <c r="K104" s="44"/>
+      <c r="L104" s="44"/>
       <c r="M104" s="39"/>
       <c r="N104" s="39"/>
       <c r="O104" s="39"/>
       <c r="P104" s="39"/>
       <c r="Q104" s="39"/>
       <c r="R104" s="39"/>
-      <c r="S104" s="49"/>
-      <c r="T104" s="49"/>
+      <c r="S104" s="45"/>
+      <c r="T104" s="45"/>
       <c r="U104" s="32"/>
       <c r="V104" s="32"/>
       <c r="W104" s="32"/>
     </row>
     <row r="105" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="34" t="n">
-        <v>47</v>
-      </c>
-      <c r="B105" s="47"/>
-      <c r="C105" s="47"/>
-      <c r="D105" s="47"/>
-      <c r="E105" s="47"/>
+        <v>46</v>
+      </c>
+      <c r="B105" s="36"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
       <c r="F105" s="37" t="str">
         <f aca="false">IF(OR(B105="",B106="",B106="現在"),"",IF(DATEDIF(B105,DATE(YEAR(B106),MONTH(B106)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B105,DATE(YEAR(B106),MONTH(B106)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B105,DATE(YEAR(B106),MONTH(B106)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B105,DATE(YEAR(B106),MONTH(B106)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B105,DATE(YEAR(B106),MONTH(B106)+1,0)+1,"y")&amp;"年"),DATEDIF(B105,DATE(YEAR(B106),MONTH(B106)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G105" s="48"/>
-      <c r="H105" s="48"/>
-      <c r="I105" s="48"/>
-      <c r="J105" s="48"/>
-      <c r="K105" s="48"/>
-      <c r="L105" s="48"/>
+      <c r="G105" s="44"/>
+      <c r="H105" s="44"/>
+      <c r="I105" s="44"/>
+      <c r="J105" s="44"/>
+      <c r="K105" s="44"/>
+      <c r="L105" s="44"/>
       <c r="M105" s="39"/>
       <c r="N105" s="39"/>
       <c r="O105" s="39"/>
       <c r="P105" s="39"/>
       <c r="Q105" s="39"/>
       <c r="R105" s="39"/>
-      <c r="S105" s="49"/>
-      <c r="T105" s="49"/>
+      <c r="S105" s="45"/>
+      <c r="T105" s="45"/>
       <c r="U105" s="32"/>
       <c r="V105" s="32"/>
       <c r="W105" s="32"/>
     </row>
     <row r="106" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="34"/>
-      <c r="B106" s="41"/>
-      <c r="C106" s="41"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="41"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="36"/>
       <c r="F106" s="37"/>
-      <c r="G106" s="48"/>
-      <c r="H106" s="48"/>
-      <c r="I106" s="48"/>
-      <c r="J106" s="48"/>
-      <c r="K106" s="48"/>
-      <c r="L106" s="48"/>
+      <c r="G106" s="44"/>
+      <c r="H106" s="44"/>
+      <c r="I106" s="44"/>
+      <c r="J106" s="44"/>
+      <c r="K106" s="44"/>
+      <c r="L106" s="44"/>
       <c r="M106" s="39"/>
       <c r="N106" s="39"/>
       <c r="O106" s="39"/>
       <c r="P106" s="39"/>
       <c r="Q106" s="39"/>
       <c r="R106" s="39"/>
-      <c r="S106" s="49"/>
-      <c r="T106" s="49"/>
+      <c r="S106" s="45"/>
+      <c r="T106" s="45"/>
       <c r="U106" s="32"/>
       <c r="V106" s="32"/>
       <c r="W106" s="32"/>
     </row>
     <row r="107" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="34" t="n">
-        <v>48</v>
-      </c>
-      <c r="B107" s="47"/>
-      <c r="C107" s="47"/>
-      <c r="D107" s="47"/>
-      <c r="E107" s="47"/>
+        <v>47</v>
+      </c>
+      <c r="B107" s="36"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
+      <c r="E107" s="36"/>
       <c r="F107" s="37" t="str">
         <f aca="false">IF(OR(B107="",B108="",B108="現在"),"",IF(DATEDIF(B107,DATE(YEAR(B108),MONTH(B108)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B107,DATE(YEAR(B108),MONTH(B108)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B107,DATE(YEAR(B108),MONTH(B108)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B107,DATE(YEAR(B108),MONTH(B108)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B107,DATE(YEAR(B108),MONTH(B108)+1,0)+1,"y")&amp;"年"),DATEDIF(B107,DATE(YEAR(B108),MONTH(B108)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G107" s="48"/>
-      <c r="H107" s="48"/>
-      <c r="I107" s="48"/>
-      <c r="J107" s="48"/>
-      <c r="K107" s="48"/>
-      <c r="L107" s="48"/>
+      <c r="G107" s="44"/>
+      <c r="H107" s="44"/>
+      <c r="I107" s="44"/>
+      <c r="J107" s="44"/>
+      <c r="K107" s="44"/>
+      <c r="L107" s="44"/>
       <c r="M107" s="39"/>
       <c r="N107" s="39"/>
       <c r="O107" s="39"/>
       <c r="P107" s="39"/>
       <c r="Q107" s="39"/>
       <c r="R107" s="39"/>
-      <c r="S107" s="49"/>
-      <c r="T107" s="49"/>
+      <c r="S107" s="45"/>
+      <c r="T107" s="45"/>
       <c r="U107" s="32"/>
       <c r="V107" s="32"/>
       <c r="W107" s="32"/>
     </row>
     <row r="108" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="34"/>
-      <c r="B108" s="41"/>
-      <c r="C108" s="41"/>
-      <c r="D108" s="41"/>
-      <c r="E108" s="41"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="36"/>
       <c r="F108" s="37"/>
-      <c r="G108" s="48"/>
-      <c r="H108" s="48"/>
-      <c r="I108" s="48"/>
-      <c r="J108" s="48"/>
-      <c r="K108" s="48"/>
-      <c r="L108" s="48"/>
+      <c r="G108" s="44"/>
+      <c r="H108" s="44"/>
+      <c r="I108" s="44"/>
+      <c r="J108" s="44"/>
+      <c r="K108" s="44"/>
+      <c r="L108" s="44"/>
       <c r="M108" s="39"/>
       <c r="N108" s="39"/>
       <c r="O108" s="39"/>
       <c r="P108" s="39"/>
       <c r="Q108" s="39"/>
       <c r="R108" s="39"/>
-      <c r="S108" s="49"/>
-      <c r="T108" s="49"/>
+      <c r="S108" s="45"/>
+      <c r="T108" s="45"/>
       <c r="U108" s="32"/>
       <c r="V108" s="32"/>
       <c r="W108" s="32"/>
     </row>
     <row r="109" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="34" t="n">
-        <v>49</v>
-      </c>
-      <c r="B109" s="47"/>
-      <c r="C109" s="47"/>
-      <c r="D109" s="47"/>
-      <c r="E109" s="47"/>
+        <v>48</v>
+      </c>
+      <c r="B109" s="36"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="36"/>
       <c r="F109" s="37" t="str">
         <f aca="false">IF(OR(B109="",B110="",B110="現在"),"",IF(DATEDIF(B109,DATE(YEAR(B110),MONTH(B110)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B109,DATE(YEAR(B110),MONTH(B110)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B109,DATE(YEAR(B110),MONTH(B110)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B109,DATE(YEAR(B110),MONTH(B110)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B109,DATE(YEAR(B110),MONTH(B110)+1,0)+1,"y")&amp;"年"),DATEDIF(B109,DATE(YEAR(B110),MONTH(B110)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G109" s="48"/>
-      <c r="H109" s="48"/>
-      <c r="I109" s="48"/>
-      <c r="J109" s="48"/>
-      <c r="K109" s="48"/>
-      <c r="L109" s="48"/>
+      <c r="G109" s="44"/>
+      <c r="H109" s="44"/>
+      <c r="I109" s="44"/>
+      <c r="J109" s="44"/>
+      <c r="K109" s="44"/>
+      <c r="L109" s="44"/>
       <c r="M109" s="39"/>
       <c r="N109" s="39"/>
       <c r="O109" s="39"/>
       <c r="P109" s="39"/>
       <c r="Q109" s="39"/>
       <c r="R109" s="39"/>
-      <c r="S109" s="49"/>
-      <c r="T109" s="49"/>
+      <c r="S109" s="45"/>
+      <c r="T109" s="45"/>
       <c r="U109" s="32"/>
       <c r="V109" s="32"/>
       <c r="W109" s="32"/>
     </row>
     <row r="110" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="34"/>
-      <c r="B110" s="41"/>
-      <c r="C110" s="41"/>
-      <c r="D110" s="41"/>
-      <c r="E110" s="41"/>
+      <c r="B110" s="36"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="36"/>
+      <c r="E110" s="36"/>
       <c r="F110" s="37"/>
-      <c r="G110" s="48"/>
-      <c r="H110" s="48"/>
-      <c r="I110" s="48"/>
-      <c r="J110" s="48"/>
-      <c r="K110" s="48"/>
-      <c r="L110" s="48"/>
+      <c r="G110" s="44"/>
+      <c r="H110" s="44"/>
+      <c r="I110" s="44"/>
+      <c r="J110" s="44"/>
+      <c r="K110" s="44"/>
+      <c r="L110" s="44"/>
       <c r="M110" s="39"/>
       <c r="N110" s="39"/>
       <c r="O110" s="39"/>
       <c r="P110" s="39"/>
       <c r="Q110" s="39"/>
       <c r="R110" s="39"/>
-      <c r="S110" s="49"/>
-      <c r="T110" s="49"/>
+      <c r="S110" s="45"/>
+      <c r="T110" s="45"/>
       <c r="U110" s="32"/>
       <c r="V110" s="32"/>
       <c r="W110" s="32"/>
     </row>
     <row r="111" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="34" t="n">
-        <v>50</v>
-      </c>
-      <c r="B111" s="47"/>
-      <c r="C111" s="47"/>
-      <c r="D111" s="47"/>
-      <c r="E111" s="47"/>
+        <v>49</v>
+      </c>
+      <c r="B111" s="36"/>
+      <c r="C111" s="36"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="36"/>
       <c r="F111" s="37" t="str">
         <f aca="false">IF(OR(B111="",B112="",B112="現在"),"",IF(DATEDIF(B111,DATE(YEAR(B112),MONTH(B112)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B111,DATE(YEAR(B112),MONTH(B112)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B111,DATE(YEAR(B112),MONTH(B112)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B111,DATE(YEAR(B112),MONTH(B112)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B111,DATE(YEAR(B112),MONTH(B112)+1,0)+1,"y")&amp;"年"),DATEDIF(B111,DATE(YEAR(B112),MONTH(B112)+1,0)+1,"ym")&amp;"ヶ月"))</f>
         <v/>
       </c>
-      <c r="G111" s="48"/>
-      <c r="H111" s="48"/>
-      <c r="I111" s="48"/>
-      <c r="J111" s="48"/>
-      <c r="K111" s="48"/>
-      <c r="L111" s="48"/>
+      <c r="G111" s="44"/>
+      <c r="H111" s="44"/>
+      <c r="I111" s="44"/>
+      <c r="J111" s="44"/>
+      <c r="K111" s="44"/>
+      <c r="L111" s="44"/>
       <c r="M111" s="39"/>
       <c r="N111" s="39"/>
       <c r="O111" s="39"/>
       <c r="P111" s="39"/>
       <c r="Q111" s="39"/>
       <c r="R111" s="39"/>
-      <c r="S111" s="49"/>
-      <c r="T111" s="49"/>
+      <c r="S111" s="45"/>
+      <c r="T111" s="45"/>
       <c r="U111" s="32"/>
       <c r="V111" s="32"/>
       <c r="W111" s="32"/>
     </row>
     <row r="112" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="34"/>
-      <c r="B112" s="41"/>
-      <c r="C112" s="41"/>
-      <c r="D112" s="41"/>
-      <c r="E112" s="41"/>
+      <c r="B112" s="36"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="36"/>
       <c r="F112" s="37"/>
-      <c r="G112" s="48"/>
-      <c r="H112" s="48"/>
-      <c r="I112" s="48"/>
-      <c r="J112" s="48"/>
-      <c r="K112" s="48"/>
-      <c r="L112" s="48"/>
+      <c r="G112" s="44"/>
+      <c r="H112" s="44"/>
+      <c r="I112" s="44"/>
+      <c r="J112" s="44"/>
+      <c r="K112" s="44"/>
+      <c r="L112" s="44"/>
       <c r="M112" s="39"/>
       <c r="N112" s="39"/>
       <c r="O112" s="39"/>
       <c r="P112" s="39"/>
       <c r="Q112" s="39"/>
       <c r="R112" s="39"/>
-      <c r="S112" s="49"/>
-      <c r="T112" s="49"/>
+      <c r="S112" s="45"/>
+      <c r="T112" s="45"/>
       <c r="U112" s="32"/>
       <c r="V112" s="32"/>
       <c r="W112" s="32"/>
     </row>
-    <row r="113" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="50" t="s">
+    <row r="113" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="34" t="n">
+        <v>50</v>
+      </c>
+      <c r="B113" s="36"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="37" t="str">
+        <f aca="false">IF(OR(B113="",B114="",B114="現在"),"",IF(DATEDIF(B113,DATE(YEAR(B114),MONTH(B114)+1,0)+1,"y")&lt;&gt;0,IF(DATEDIF(B113,DATE(YEAR(B114),MONTH(B114)+1,0)+1,"ym")&lt;&gt;0,DATEDIF(B113,DATE(YEAR(B114),MONTH(B114)+1,0)+1,"y")&amp;"年"&amp;CHAR(10)&amp;DATEDIF(B113,DATE(YEAR(B114),MONTH(B114)+1,0)+1,"ym")&amp;"ヶ月",DATEDIF(B113,DATE(YEAR(B114),MONTH(B114)+1,0)+1,"y")&amp;"年"),DATEDIF(B113,DATE(YEAR(B114),MONTH(B114)+1,0)+1,"ym")&amp;"ヶ月"))</f>
+        <v/>
+      </c>
+      <c r="G113" s="44"/>
+      <c r="H113" s="44"/>
+      <c r="I113" s="44"/>
+      <c r="J113" s="44"/>
+      <c r="K113" s="44"/>
+      <c r="L113" s="44"/>
+      <c r="M113" s="39"/>
+      <c r="N113" s="39"/>
+      <c r="O113" s="39"/>
+      <c r="P113" s="39"/>
+      <c r="Q113" s="39"/>
+      <c r="R113" s="39"/>
+      <c r="S113" s="45"/>
+      <c r="T113" s="45"/>
+      <c r="U113" s="32"/>
+      <c r="V113" s="32"/>
+      <c r="W113" s="32"/>
+    </row>
+    <row r="114" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="34"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="36"/>
+      <c r="D114" s="36"/>
+      <c r="E114" s="36"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="44"/>
+      <c r="H114" s="44"/>
+      <c r="I114" s="44"/>
+      <c r="J114" s="44"/>
+      <c r="K114" s="44"/>
+      <c r="L114" s="44"/>
+      <c r="M114" s="39"/>
+      <c r="N114" s="39"/>
+      <c r="O114" s="39"/>
+      <c r="P114" s="39"/>
+      <c r="Q114" s="39"/>
+      <c r="R114" s="39"/>
+      <c r="S114" s="45"/>
+      <c r="T114" s="45"/>
+      <c r="U114" s="32"/>
+      <c r="V114" s="32"/>
+      <c r="W114" s="32"/>
+    </row>
+    <row r="115" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B113" s="50"/>
-      <c r="C113" s="50"/>
-      <c r="D113" s="50"/>
-      <c r="E113" s="50"/>
-      <c r="F113" s="51"/>
-      <c r="G113" s="51"/>
-      <c r="H113" s="51"/>
-      <c r="I113" s="51"/>
-      <c r="J113" s="51"/>
-      <c r="K113" s="51"/>
-      <c r="L113" s="51"/>
-      <c r="M113" s="51"/>
-      <c r="N113" s="51"/>
-      <c r="O113" s="51"/>
-      <c r="P113" s="51"/>
-      <c r="Q113" s="51"/>
-      <c r="R113" s="51"/>
-      <c r="S113" s="51"/>
-      <c r="T113" s="51"/>
-      <c r="U113" s="11"/>
-      <c r="V113" s="11"/>
-    </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="s">
+      <c r="B115" s="46"/>
+      <c r="C115" s="46"/>
+      <c r="D115" s="46"/>
+      <c r="E115" s="46"/>
+      <c r="F115" s="47"/>
+      <c r="G115" s="47"/>
+      <c r="H115" s="47"/>
+      <c r="I115" s="47"/>
+      <c r="J115" s="47"/>
+      <c r="K115" s="47"/>
+      <c r="L115" s="47"/>
+      <c r="M115" s="47"/>
+      <c r="N115" s="47"/>
+      <c r="O115" s="47"/>
+      <c r="P115" s="47"/>
+      <c r="Q115" s="47"/>
+      <c r="R115" s="47"/>
+      <c r="S115" s="47"/>
+      <c r="T115" s="47"/>
+      <c r="U115" s="11"/>
+      <c r="V115" s="11"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="486">
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:T2"/>
@@ -4197,8 +4227,17 @@
     <mergeCell ref="Q111:R112"/>
     <mergeCell ref="S111:T112"/>
     <mergeCell ref="B112:E112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="F113:T113"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:L114"/>
+    <mergeCell ref="M113:N114"/>
+    <mergeCell ref="O113:P114"/>
+    <mergeCell ref="Q113:R114"/>
+    <mergeCell ref="S113:T114"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="F115:T115"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J4" type="list">

--- a/src/main/resources/templates/excel/skillreport.xlsx
+++ b/src/main/resources/templates/excel/skillreport.xlsx
@@ -111,14 +111,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\年m\月;@"/>
     <numFmt numFmtId="166" formatCode="yyyy\年mm\月dd\日"/>
-    <numFmt numFmtId="167" formatCode="0_);[RED]\(0\)"/>
-    <numFmt numFmtId="168" formatCode="yyyy\年mm\月"/>
-    <numFmt numFmtId="169" formatCode="#&quot;ヶ月&quot;"/>
-    <numFmt numFmtId="170" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="yyyy\年mm\月"/>
+    <numFmt numFmtId="168" formatCode="#&quot;ヶ月&quot;"/>
+    <numFmt numFmtId="169" formatCode="@"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -211,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -249,13 +248,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right/>
       <top style="thin"/>
       <bottom style="thin"/>
@@ -408,11 +400,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -424,27 +416,27 @@
       <alignment horizontal="distributed" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="distributed" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="distributed" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="distributed" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="distributed" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -456,11 +448,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -492,11 +484,11 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -504,15 +496,15 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -520,11 +512,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -556,7 +548,7 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V106" activeCellId="0" sqref="V106"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.8828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -699,7 +691,10 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
+      <c r="I5" s="16" t="str">
+        <f aca="false">IF(D5="","","満" &amp; DATEDIF(D5,$P$2,"Y")&amp;"歳")</f>
+        <v/>
+      </c>
       <c r="J5" s="17"/>
       <c r="K5" s="9" t="s">
         <v>7</v>

--- a/src/main/resources/templates/excel/skillreport.xlsx
+++ b/src/main/resources/templates/excel/skillreport.xlsx
@@ -111,13 +111,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\年m\月;@"/>
     <numFmt numFmtId="166" formatCode="yyyy\年mm\月dd\日"/>
-    <numFmt numFmtId="167" formatCode="yyyy\年mm\月"/>
-    <numFmt numFmtId="168" formatCode="#&quot;ヶ月&quot;"/>
-    <numFmt numFmtId="169" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="General"/>
+    <numFmt numFmtId="168" formatCode="yyyy\年mm\月"/>
+    <numFmt numFmtId="169" formatCode="#&quot;ヶ月&quot;"/>
+    <numFmt numFmtId="170" formatCode="@"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -400,8 +401,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -436,7 +437,7 @@
       <alignment horizontal="distributed" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -484,11 +485,11 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -496,15 +497,15 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -512,11 +513,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -548,7 +549,7 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.8828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/main/resources/templates/excel/skillreport.xlsx
+++ b/src/main/resources/templates/excel/skillreport.xlsx
@@ -115,7 +115,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\年m\月;@"/>
     <numFmt numFmtId="166" formatCode="yyyy\年mm\月dd\日"/>
-    <numFmt numFmtId="167" formatCode="0_);[RED]\(0\)"/>
+    <numFmt numFmtId="167" formatCode="General"/>
     <numFmt numFmtId="168" formatCode="yyyy\年mm\月"/>
     <numFmt numFmtId="169" formatCode="#&quot;ヶ月&quot;"/>
     <numFmt numFmtId="170" formatCode="@"/>
@@ -211,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -249,13 +249,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right/>
       <top style="thin"/>
       <bottom style="thin"/>
@@ -408,11 +401,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -424,23 +417,23 @@
       <alignment horizontal="distributed" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="distributed" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="distributed" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="distributed" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="distributed" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -456,11 +449,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -520,11 +513,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -556,7 +549,7 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V106" activeCellId="0" sqref="V106"/>
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.8828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -699,7 +692,10 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
+      <c r="I5" s="16" t="str">
+        <f aca="false">IF(D5="","","満" &amp; DATEDIF(D5,$P$2,"Y")&amp;"歳")</f>
+        <v/>
+      </c>
       <c r="J5" s="17"/>
       <c r="K5" s="9" t="s">
         <v>7</v>

--- a/src/main/resources/templates/excel/skillreport.xlsx
+++ b/src/main/resources/templates/excel/skillreport.xlsx
@@ -398,7 +398,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -549,7 +549,7 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.8828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -617,7 +617,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="4" t="n">
         <f aca="true">TODAY()</f>
-        <v>44514</v>
+        <v>44527</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>

--- a/src/main/resources/templates/excel/skillreport.xlsx
+++ b/src/main/resources/templates/excel/skillreport.xlsx
@@ -548,14 +548,15 @@
   </sheetPr>
   <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.8828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="3.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="3.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="2.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="2.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.87"/>
@@ -617,7 +618,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="4" t="n">
         <f aca="true">TODAY()</f>
-        <v>44527</v>
+        <v>44542</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
